--- a/Pandas_1/dat_tutorial_3.xlsx
+++ b/Pandas_1/dat_tutorial_3.xlsx
@@ -409,16 +409,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c s="1" r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c s="1" r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" r="D1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -432,7 +432,7 @@
       <c r="C2" t="n">
         <v>877</v>
       </c>
-      <c s="2" r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -446,7 +446,7 @@
       <c r="C3" t="n">
         <v>901</v>
       </c>
-      <c s="2" r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -460,7 +460,7 @@
       <c r="C4" t="n">
         <v>749</v>
       </c>
-      <c s="2" r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -474,7 +474,7 @@
       <c r="C5" t="n">
         <v>111</v>
       </c>
-      <c s="2" r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -488,7 +488,7 @@
       <c r="C6" t="n">
         <v>300</v>
       </c>
-      <c s="2" r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -502,7 +502,7 @@
       <c r="C7" t="n">
         <v>706</v>
       </c>
-      <c s="2" r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
       <c r="C8" t="n">
         <v>347</v>
       </c>
-      <c s="2" r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -530,7 +530,7 @@
       <c r="C9" t="n">
         <v>143</v>
       </c>
-      <c s="2" r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -544,7 +544,7 @@
       <c r="C10" t="n">
         <v>833</v>
       </c>
-      <c s="2" r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -558,7 +558,7 @@
       <c r="C11" t="n">
         <v>992</v>
       </c>
-      <c s="2" r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="C12" t="n">
         <v>978</v>
       </c>
-      <c s="2" r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
       <c r="C13" t="n">
         <v>32</v>
       </c>
-      <c s="2" r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="C14" t="n">
         <v>293</v>
       </c>
-      <c s="2" r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -614,7 +614,7 @@
       <c r="C15" t="n">
         <v>291</v>
       </c>
-      <c s="2" r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -628,7 +628,7 @@
       <c r="C16" t="n">
         <v>474</v>
       </c>
-      <c s="2" r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -642,7 +642,7 @@
       <c r="C17" t="n">
         <v>905</v>
       </c>
-      <c s="2" r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
       <c r="C18" t="n">
         <v>753</v>
       </c>
-      <c s="2" r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
       <c r="C19" t="n">
         <v>309</v>
       </c>
-      <c s="2" r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -684,7 +684,7 @@
       <c r="C20" t="n">
         <v>295</v>
       </c>
-      <c s="2" r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -698,7 +698,7 @@
       <c r="C21" t="n">
         <v>443</v>
       </c>
-      <c s="2" r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -712,7 +712,7 @@
       <c r="C22" t="n">
         <v>46</v>
       </c>
-      <c s="2" r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C23" t="n">
         <v>591</v>
       </c>
-      <c s="2" r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -740,7 +740,7 @@
       <c r="C24" t="n">
         <v>737</v>
       </c>
-      <c s="2" r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
       <c r="C25" t="n">
         <v>62</v>
       </c>
-      <c s="2" r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -768,7 +768,7 @@
       <c r="C26" t="n">
         <v>997</v>
       </c>
-      <c s="2" r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="C27" t="n">
         <v>767</v>
       </c>
-      <c s="2" r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
       <c r="C28" t="n">
         <v>723</v>
       </c>
-      <c s="2" r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -810,7 +810,7 @@
       <c r="C29" t="n">
         <v>293</v>
       </c>
-      <c s="2" r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
       <c r="C30" t="n">
         <v>710</v>
       </c>
-      <c s="2" r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -838,7 +838,7 @@
       <c r="C31" t="n">
         <v>990</v>
       </c>
-      <c s="2" r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
       <c r="C32" t="n">
         <v>359</v>
       </c>
-      <c s="2" r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="C33" t="n">
         <v>568</v>
       </c>
-      <c s="2" r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C34" t="n">
         <v>369</v>
       </c>
-      <c s="2" r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -894,7 +894,7 @@
       <c r="C35" t="n">
         <v>991</v>
       </c>
-      <c s="2" r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
       <c r="C36" t="n">
         <v>550</v>
       </c>
-      <c s="2" r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -922,7 +922,7 @@
       <c r="C37" t="n">
         <v>587</v>
       </c>
-      <c s="2" r="D37" t="n">
+      <c r="D37" s="2" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="C38" t="n">
         <v>772</v>
       </c>
-      <c s="2" r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
       <c r="C39" t="n">
         <v>495</v>
       </c>
-      <c s="2" r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -964,7 +964,7 @@
       <c r="C40" t="n">
         <v>349</v>
       </c>
-      <c s="2" r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -978,7 +978,7 @@
       <c r="C41" t="n">
         <v>508</v>
       </c>
-      <c s="2" r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -992,7 +992,7 @@
       <c r="C42" t="n">
         <v>694</v>
       </c>
-      <c s="2" r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="C43" t="n">
         <v>768</v>
       </c>
-      <c s="2" r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       <c r="C44" t="n">
         <v>930</v>
       </c>
-      <c s="2" r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C45" t="n">
         <v>195</v>
       </c>
-      <c s="2" r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       <c r="C46" t="n">
         <v>940</v>
       </c>
-      <c s="2" r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       <c r="C47" t="n">
         <v>634</v>
       </c>
-      <c s="2" r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       <c r="C48" t="n">
         <v>959</v>
       </c>
-      <c s="2" r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       <c r="C49" t="n">
         <v>596</v>
       </c>
-      <c s="2" r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       <c r="C50" t="n">
         <v>881</v>
       </c>
-      <c s="2" r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       <c r="C51" t="n">
         <v>510</v>
       </c>
-      <c s="2" r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="C52" t="n">
         <v>285</v>
       </c>
-      <c s="2" r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       <c r="C53" t="n">
         <v>298</v>
       </c>
-      <c s="2" r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="C54" t="n">
         <v>99</v>
       </c>
-      <c s="2" r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       <c r="C55" t="n">
         <v>164</v>
       </c>
-      <c s="2" r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C56" t="n">
         <v>714</v>
       </c>
-      <c s="2" r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       <c r="C57" t="n">
         <v>640</v>
       </c>
-      <c s="2" r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       <c r="C58" t="n">
         <v>881</v>
       </c>
-      <c s="2" r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       <c r="C59" t="n">
         <v>404</v>
       </c>
-      <c s="2" r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       <c r="C60" t="n">
         <v>148</v>
       </c>
-      <c s="2" r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       <c r="C61" t="n">
         <v>256</v>
       </c>
-      <c s="2" r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       <c r="C62" t="n">
         <v>871</v>
       </c>
-      <c s="2" r="D62" t="n">
+      <c r="D62" s="2" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       <c r="C63" t="n">
         <v>757</v>
       </c>
-      <c s="2" r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       <c r="C64" t="n">
         <v>671</v>
       </c>
-      <c s="2" r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="C65" t="n">
         <v>247</v>
       </c>
-      <c s="2" r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       <c r="C66" t="n">
         <v>454</v>
       </c>
-      <c s="2" r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C67" t="n">
         <v>212</v>
       </c>
-      <c s="2" r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="C68" t="n">
         <v>375</v>
       </c>
-      <c s="2" r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       <c r="C69" t="n">
         <v>502</v>
       </c>
-      <c s="2" r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       <c r="C70" t="n">
         <v>536</v>
       </c>
-      <c s="2" r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       <c r="C71" t="n">
         <v>225</v>
       </c>
-      <c s="2" r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
       <c r="C72" t="n">
         <v>756</v>
       </c>
-      <c s="2" r="D72" t="n">
+      <c r="D72" s="2" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       <c r="C73" t="n">
         <v>89</v>
       </c>
-      <c s="2" r="D73" t="n">
+      <c r="D73" s="2" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       <c r="C74" t="n">
         <v>538</v>
       </c>
-      <c s="2" r="D74" t="n">
+      <c r="D74" s="2" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       <c r="C75" t="n">
         <v>162</v>
       </c>
-      <c s="2" r="D75" t="n">
+      <c r="D75" s="2" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       <c r="C76" t="n">
         <v>421</v>
       </c>
-      <c s="2" r="D76" t="n">
+      <c r="D76" s="2" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       <c r="C77" t="n">
         <v>668</v>
       </c>
-      <c s="2" r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C78" t="n">
         <v>765</v>
       </c>
-      <c s="2" r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       <c r="C79" t="n">
         <v>198</v>
       </c>
-      <c s="2" r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       <c r="C80" t="n">
         <v>830</v>
       </c>
-      <c s="2" r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       <c r="C81" t="n">
         <v>990</v>
       </c>
-      <c s="2" r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       <c r="C82" t="n">
         <v>94</v>
       </c>
-      <c s="2" r="D82" t="n">
+      <c r="D82" s="2" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       <c r="C83" t="n">
         <v>314</v>
       </c>
-      <c s="2" r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       <c r="C84" t="n">
         <v>261</v>
       </c>
-      <c s="2" r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       <c r="C85" t="n">
         <v>185</v>
       </c>
-      <c s="2" r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       <c r="C86" t="n">
         <v>160</v>
       </c>
-      <c s="2" r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       <c r="C87" t="n">
         <v>763</v>
       </c>
-      <c s="2" r="D87" t="n">
+      <c r="D87" s="2" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       <c r="C88" t="n">
         <v>79</v>
       </c>
-      <c s="2" r="D88" t="n">
+      <c r="D88" s="2" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C89" t="n">
         <v>708</v>
       </c>
-      <c s="2" r="D89" t="n">
+      <c r="D89" s="2" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       <c r="C90" t="n">
         <v>615</v>
       </c>
-      <c s="2" r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       <c r="C91" t="n">
         <v>642</v>
       </c>
-      <c s="2" r="D91" t="n">
+      <c r="D91" s="2" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
       <c r="C92" t="n">
         <v>480</v>
       </c>
-      <c s="2" r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       <c r="C93" t="n">
         <v>843</v>
       </c>
-      <c s="2" r="D93" t="n">
+      <c r="D93" s="2" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="C94" t="n">
         <v>87</v>
       </c>
-      <c s="2" r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       <c r="C95" t="n">
         <v>100</v>
       </c>
-      <c s="2" r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       <c r="C96" t="n">
         <v>321</v>
       </c>
-      <c s="2" r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="C97" t="n">
         <v>451</v>
       </c>
-      <c s="2" r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       <c r="C98" t="n">
         <v>75</v>
       </c>
-      <c s="2" r="D98" t="n">
+      <c r="D98" s="2" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       <c r="C99" t="n">
         <v>116</v>
       </c>
-      <c s="2" r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="C100" t="n">
         <v>739</v>
       </c>
-      <c s="2" r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       <c r="C101" t="n">
         <v>67</v>
       </c>
-      <c s="2" r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       <c r="C102" t="n">
         <v>705</v>
       </c>
-      <c s="2" r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       <c r="C103" t="n">
         <v>453</v>
       </c>
-      <c s="2" r="D103" t="n">
+      <c r="D103" s="2" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       <c r="C104" t="n">
         <v>402</v>
       </c>
-      <c s="2" r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       <c r="C105" t="n">
         <v>202</v>
       </c>
-      <c s="2" r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       <c r="C106" t="n">
         <v>308</v>
       </c>
-      <c s="2" r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       <c r="C107" t="n">
         <v>656</v>
       </c>
-      <c s="2" r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       <c r="C108" t="n">
         <v>605</v>
       </c>
-      <c s="2" r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="C109" t="n">
         <v>166</v>
       </c>
-      <c s="2" r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       <c r="C110" t="n">
         <v>959</v>
       </c>
-      <c s="2" r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="C111" t="n">
         <v>588</v>
       </c>
-      <c s="2" r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       <c r="C112" t="n">
         <v>533</v>
       </c>
-      <c s="2" r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       <c r="C113" t="n">
         <v>130</v>
       </c>
-      <c s="2" r="D113" t="n">
+      <c r="D113" s="2" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       <c r="C114" t="n">
         <v>882</v>
       </c>
-      <c s="2" r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="C115" t="n">
         <v>926</v>
       </c>
-      <c s="2" r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       <c r="C116" t="n">
         <v>889</v>
       </c>
-      <c s="2" r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       <c r="C117" t="n">
         <v>342</v>
       </c>
-      <c s="2" r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       <c r="C118" t="n">
         <v>198</v>
       </c>
-      <c s="2" r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       <c r="C119" t="n">
         <v>329</v>
       </c>
-      <c s="2" r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       <c r="C120" t="n">
         <v>571</v>
       </c>
-      <c s="2" r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       <c r="C121" t="n">
         <v>894</v>
       </c>
-      <c s="2" r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       <c r="C122" t="n">
         <v>342</v>
       </c>
-      <c s="2" r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="C123" t="n">
         <v>887</v>
       </c>
-      <c s="2" r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="C124" t="n">
         <v>706</v>
       </c>
-      <c s="2" r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       <c r="C125" t="n">
         <v>825</v>
       </c>
-      <c s="2" r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       <c r="C126" t="n">
         <v>491</v>
       </c>
-      <c s="2" r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
       <c r="C127" t="n">
         <v>416</v>
       </c>
-      <c s="2" r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       <c r="C128" t="n">
         <v>388</v>
       </c>
-      <c s="2" r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       <c r="C129" t="n">
         <v>798</v>
       </c>
-      <c s="2" r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       <c r="C130" t="n">
         <v>515</v>
       </c>
-      <c s="2" r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       <c r="C131" t="n">
         <v>135</v>
       </c>
-      <c s="2" r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       <c r="C132" t="n">
         <v>941</v>
       </c>
-      <c s="2" r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="C133" t="n">
         <v>544</v>
       </c>
-      <c s="2" r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       <c r="C134" t="n">
         <v>536</v>
       </c>
-      <c s="2" r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       <c r="C135" t="n">
         <v>924</v>
       </c>
-      <c s="2" r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       <c r="C136" t="n">
         <v>244</v>
       </c>
-      <c s="2" r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
       <c r="C137" t="n">
         <v>513</v>
       </c>
-      <c s="2" r="D137" t="n">
+      <c r="D137" s="2" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="C138" t="n">
         <v>148</v>
       </c>
-      <c s="2" r="D138" t="n">
+      <c r="D138" s="2" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       <c r="C139" t="n">
         <v>327</v>
       </c>
-      <c s="2" r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       <c r="C140" t="n">
         <v>890</v>
       </c>
-      <c s="2" r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       <c r="C141" t="n">
         <v>329</v>
       </c>
-      <c s="2" r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       <c r="C142" t="n">
         <v>955</v>
       </c>
-      <c s="2" r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       <c r="C143" t="n">
         <v>138</v>
       </c>
-      <c s="2" r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       <c r="C144" t="n">
         <v>181</v>
       </c>
-      <c s="2" r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       <c r="C145" t="n">
         <v>491</v>
       </c>
-      <c s="2" r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -2448,7 +2448,7 @@
       <c r="C146" t="n">
         <v>737</v>
       </c>
-      <c s="2" r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       <c r="C147" t="n">
         <v>742</v>
       </c>
-      <c s="2" r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       <c r="C148" t="n">
         <v>784</v>
       </c>
-      <c s="2" r="D148" t="n">
+      <c r="D148" s="2" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       <c r="C149" t="n">
         <v>95</v>
       </c>
-      <c s="2" r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       <c r="C150" t="n">
         <v>33</v>
       </c>
-      <c s="2" r="D150" t="n">
+      <c r="D150" s="2" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       <c r="C151" t="n">
         <v>949</v>
       </c>
-      <c s="2" r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="C152" t="n">
         <v>847</v>
       </c>
-      <c s="2" r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       <c r="C153" t="n">
         <v>105</v>
       </c>
-      <c s="2" r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       <c r="C154" t="n">
         <v>941</v>
       </c>
-      <c s="2" r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       <c r="C155" t="n">
         <v>453</v>
       </c>
-      <c s="2" r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       <c r="C156" t="n">
         <v>623</v>
       </c>
-      <c s="2" r="D156" t="n">
+      <c r="D156" s="2" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
       <c r="C157" t="n">
         <v>462</v>
       </c>
-      <c s="2" r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       <c r="C158" t="n">
         <v>123</v>
       </c>
-      <c s="2" r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
       <c r="C159" t="n">
         <v>564</v>
       </c>
-      <c s="2" r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="C160" t="n">
         <v>530</v>
       </c>
-      <c s="2" r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       <c r="C161" t="n">
         <v>85</v>
       </c>
-      <c s="2" r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       <c r="C162" t="n">
         <v>883</v>
       </c>
-      <c s="2" r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       <c r="C163" t="n">
         <v>724</v>
       </c>
-      <c s="2" r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       <c r="C164" t="n">
         <v>56</v>
       </c>
-      <c s="2" r="D164" t="n">
+      <c r="D164" s="2" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       <c r="C165" t="n">
         <v>784</v>
       </c>
-      <c s="2" r="D165" t="n">
+      <c r="D165" s="2" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       <c r="C166" t="n">
         <v>957</v>
       </c>
-      <c s="2" r="D166" t="n">
+      <c r="D166" s="2" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       <c r="C167" t="n">
         <v>888</v>
       </c>
-      <c s="2" r="D167" t="n">
+      <c r="D167" s="2" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       <c r="C168" t="n">
         <v>109</v>
       </c>
-      <c s="2" r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       <c r="C169" t="n">
         <v>91</v>
       </c>
-      <c s="2" r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       <c r="C170" t="n">
         <v>999</v>
       </c>
-      <c s="2" r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
       <c r="C171" t="n">
         <v>375</v>
       </c>
-      <c s="2" r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="C172" t="n">
         <v>318</v>
       </c>
-      <c s="2" r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       <c r="C173" t="n">
         <v>899</v>
       </c>
-      <c s="2" r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       <c r="C174" t="n">
         <v>852</v>
       </c>
-      <c s="2" r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
       <c r="C175" t="n">
         <v>257</v>
       </c>
-      <c s="2" r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       <c r="C176" t="n">
         <v>710</v>
       </c>
-      <c s="2" r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
       <c r="C177" t="n">
         <v>782</v>
       </c>
-      <c s="2" r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       <c r="C178" t="n">
         <v>585</v>
       </c>
-      <c s="2" r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       <c r="C179" t="n">
         <v>616</v>
       </c>
-      <c s="2" r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="C180" t="n">
         <v>370</v>
       </c>
-      <c s="2" r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       <c r="C181" t="n">
         <v>128</v>
       </c>
-      <c s="2" r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -2952,7 +2952,7 @@
       <c r="C182" t="n">
         <v>687</v>
       </c>
-      <c s="2" r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       <c r="C183" t="n">
         <v>291</v>
       </c>
-      <c s="2" r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       <c r="C184" t="n">
         <v>491</v>
       </c>
-      <c s="2" r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       <c r="C185" t="n">
         <v>754</v>
       </c>
-      <c s="2" r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       <c r="C186" t="n">
         <v>154</v>
       </c>
-      <c s="2" r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
       <c r="C187" t="n">
         <v>104</v>
       </c>
-      <c s="2" r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       <c r="C188" t="n">
         <v>169</v>
       </c>
-      <c s="2" r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       <c r="C189" t="n">
         <v>869</v>
       </c>
-      <c s="2" r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       <c r="C190" t="n">
         <v>511</v>
       </c>
-      <c s="2" r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       <c r="C191" t="n">
         <v>708</v>
       </c>
-      <c s="2" r="D191" t="n">
+      <c r="D191" s="2" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       <c r="C192" t="n">
         <v>163</v>
       </c>
-      <c s="2" r="D192" t="n">
+      <c r="D192" s="2" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       <c r="C193" t="n">
         <v>89</v>
       </c>
-      <c s="2" r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       <c r="C194" t="n">
         <v>747</v>
       </c>
-      <c s="2" r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       <c r="C195" t="n">
         <v>264</v>
       </c>
-      <c s="2" r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       <c r="C196" t="n">
         <v>381</v>
       </c>
-      <c s="2" r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       <c r="C197" t="n">
         <v>315</v>
       </c>
-      <c s="2" r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       <c r="C198" t="n">
         <v>981</v>
       </c>
-      <c s="2" r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       <c r="C199" t="n">
         <v>941</v>
       </c>
-      <c s="2" r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="C200" t="n">
         <v>203</v>
       </c>
-      <c s="2" r="D200" t="n">
+      <c r="D200" s="2" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="C201" t="n">
         <v>247</v>
       </c>
-      <c s="2" r="D201" t="n">
+      <c r="D201" s="2" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       <c r="C202" t="n">
         <v>564</v>
       </c>
-      <c s="2" r="D202" t="n">
+      <c r="D202" s="2" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       <c r="C203" t="n">
         <v>875</v>
       </c>
-      <c s="2" r="D203" t="n">
+      <c r="D203" s="2" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       <c r="C204" t="n">
         <v>573</v>
       </c>
-      <c s="2" r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       <c r="C205" t="n">
         <v>748</v>
       </c>
-      <c s="2" r="D205" t="n">
+      <c r="D205" s="2" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       <c r="C206" t="n">
         <v>222</v>
       </c>
-      <c s="2" r="D206" t="n">
+      <c r="D206" s="2" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       <c r="C207" t="n">
         <v>500</v>
       </c>
-      <c s="2" r="D207" t="n">
+      <c r="D207" s="2" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       <c r="C208" t="n">
         <v>595</v>
       </c>
-      <c s="2" r="D208" t="n">
+      <c r="D208" s="2" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
       <c r="C209" t="n">
         <v>969</v>
       </c>
-      <c s="2" r="D209" t="n">
+      <c r="D209" s="2" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       <c r="C210" t="n">
         <v>888</v>
       </c>
-      <c s="2" r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>41274</v>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
       <c r="C211" t="n">
         <v>122</v>
       </c>
-      <c s="2" r="D211" t="n">
+      <c r="D211" s="2" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       <c r="C212" t="n">
         <v>955</v>
       </c>
-      <c s="2" r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       <c r="C213" t="n">
         <v>522</v>
       </c>
-      <c s="2" r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       <c r="C214" t="n">
         <v>436</v>
       </c>
-      <c s="2" r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       <c r="C215" t="n">
         <v>398</v>
       </c>
-      <c s="2" r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       <c r="C216" t="n">
         <v>263</v>
       </c>
-      <c s="2" r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       <c r="C217" t="n">
         <v>458</v>
       </c>
-      <c s="2" r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="C218" t="n">
         <v>434</v>
       </c>
-      <c s="2" r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       <c r="C219" t="n">
         <v>941</v>
       </c>
-      <c s="2" r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       <c r="C220" t="n">
         <v>606</v>
       </c>
-      <c s="2" r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="C221" t="n">
         <v>355</v>
       </c>
-      <c s="2" r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       <c r="C222" t="n">
         <v>972</v>
       </c>
-      <c s="2" r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       <c r="C223" t="n">
         <v>35</v>
       </c>
-      <c s="2" r="D223" t="n">
+      <c r="D223" s="2" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       <c r="C224" t="n">
         <v>251</v>
       </c>
-      <c s="2" r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -3554,7 +3554,7 @@
       <c r="C225" t="n">
         <v>997</v>
       </c>
-      <c s="2" r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       <c r="C226" t="n">
         <v>820</v>
       </c>
-      <c s="2" r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       <c r="C227" t="n">
         <v>447</v>
       </c>
-      <c s="2" r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       <c r="C228" t="n">
         <v>781</v>
       </c>
-      <c s="2" r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -3610,7 +3610,7 @@
       <c r="C229" t="n">
         <v>987</v>
       </c>
-      <c s="2" r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       <c r="C230" t="n">
         <v>377</v>
       </c>
-      <c s="2" r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       <c r="C231" t="n">
         <v>378</v>
       </c>
-      <c s="2" r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       <c r="C232" t="n">
         <v>528</v>
       </c>
-      <c s="2" r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       <c r="C233" t="n">
         <v>45</v>
       </c>
-      <c s="2" r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       <c r="C234" t="n">
         <v>897</v>
       </c>
-      <c s="2" r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
       <c r="C235" t="n">
         <v>896</v>
       </c>
-      <c s="2" r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       <c r="C236" t="n">
         <v>531</v>
       </c>
-      <c s="2" r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       <c r="C237" t="n">
         <v>270</v>
       </c>
-      <c s="2" r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       <c r="C238" t="n">
         <v>75</v>
       </c>
-      <c s="2" r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       <c r="C239" t="n">
         <v>491</v>
       </c>
-      <c s="2" r="D239" t="n">
+      <c r="D239" s="2" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
       <c r="C240" t="n">
         <v>705</v>
       </c>
-      <c s="2" r="D240" t="n">
+      <c r="D240" s="2" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       <c r="C241" t="n">
         <v>670</v>
       </c>
-      <c s="2" r="D241" t="n">
+      <c r="D241" s="2" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       <c r="C242" t="n">
         <v>563</v>
       </c>
-      <c s="2" r="D242" t="n">
+      <c r="D242" s="2" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       <c r="C243" t="n">
         <v>341</v>
       </c>
-      <c s="2" r="D243" t="n">
+      <c r="D243" s="2" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       <c r="C244" t="n">
         <v>840</v>
       </c>
-      <c s="2" r="D244" t="n">
+      <c r="D244" s="2" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       <c r="C245" t="n">
         <v>602</v>
       </c>
-      <c s="2" r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       <c r="C246" t="n">
         <v>307</v>
       </c>
-      <c s="2" r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       <c r="C247" t="n">
         <v>238</v>
       </c>
-      <c s="2" r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       <c r="C248" t="n">
         <v>854</v>
       </c>
-      <c s="2" r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -3890,7 +3890,7 @@
       <c r="C249" t="n">
         <v>952</v>
       </c>
-      <c s="2" r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       <c r="C250" t="n">
         <v>145</v>
       </c>
-      <c s="2" r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="C251" t="n">
         <v>315</v>
       </c>
-      <c s="2" r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       <c r="C252" t="n">
         <v>640</v>
       </c>
-      <c s="2" r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       <c r="C253" t="n">
         <v>844</v>
       </c>
-      <c s="2" r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -3960,7 +3960,7 @@
       <c r="C254" t="n">
         <v>752</v>
       </c>
-      <c s="2" r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
       <c r="C255" t="n">
         <v>458</v>
       </c>
-      <c s="2" r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       <c r="C256" t="n">
         <v>382</v>
       </c>
-      <c s="2" r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       <c r="C257" t="n">
         <v>184</v>
       </c>
-      <c s="2" r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       <c r="C258" t="n">
         <v>458</v>
       </c>
-      <c s="2" r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       <c r="C259" t="n">
         <v>50</v>
       </c>
-      <c s="2" r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
       <c r="C260" t="n">
         <v>610</v>
       </c>
-      <c s="2" r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       <c r="C261" t="n">
         <v>28</v>
       </c>
-      <c s="2" r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
       <c r="C262" t="n">
         <v>788</v>
       </c>
-      <c s="2" r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       <c r="C263" t="n">
         <v>277</v>
       </c>
-      <c s="2" r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       <c r="C264" t="n">
         <v>419</v>
       </c>
-      <c s="2" r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
       <c r="C265" t="n">
         <v>792</v>
       </c>
-      <c s="2" r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       <c r="C266" t="n">
         <v>493</v>
       </c>
-      <c s="2" r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       <c r="C267" t="n">
         <v>739</v>
       </c>
-      <c s="2" r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       <c r="C268" t="n">
         <v>365</v>
       </c>
-      <c s="2" r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       <c r="C269" t="n">
         <v>758</v>
       </c>
-      <c s="2" r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       <c r="C270" t="n">
         <v>537</v>
       </c>
-      <c s="2" r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       <c r="C271" t="n">
         <v>414</v>
       </c>
-      <c s="2" r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       <c r="C272" t="n">
         <v>154</v>
       </c>
-      <c s="2" r="D272" t="n">
+      <c r="D272" s="2" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       <c r="C273" t="n">
         <v>32</v>
       </c>
-      <c s="2" r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       <c r="C274" t="n">
         <v>221</v>
       </c>
-      <c s="2" r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       <c r="C275" t="n">
         <v>685</v>
       </c>
-      <c s="2" r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       <c r="C276" t="n">
         <v>654</v>
       </c>
-      <c s="2" r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
       <c r="C277" t="n">
         <v>782</v>
       </c>
-      <c s="2" r="D277" t="n">
+      <c r="D277" s="2" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       <c r="C278" t="n">
         <v>769</v>
       </c>
-      <c s="2" r="D278" t="n">
+      <c r="D278" s="2" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
       <c r="C279" t="n">
         <v>599</v>
       </c>
-      <c s="2" r="D279" t="n">
+      <c r="D279" s="2" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       <c r="C280" t="n">
         <v>53</v>
       </c>
-      <c s="2" r="D280" t="n">
+      <c r="D280" s="2" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       <c r="C281" t="n">
         <v>440</v>
       </c>
-      <c s="2" r="D281" t="n">
+      <c r="D281" s="2" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       <c r="C282" t="n">
         <v>478</v>
       </c>
-      <c s="2" r="D282" t="n">
+      <c r="D282" s="2" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       <c r="C283" t="n">
         <v>948</v>
       </c>
-      <c s="2" r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       <c r="C284" t="n">
         <v>749</v>
       </c>
-      <c s="2" r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       <c r="C285" t="n">
         <v>634</v>
       </c>
-      <c s="2" r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       <c r="C286" t="n">
         <v>896</v>
       </c>
-      <c s="2" r="D286" t="n">
+      <c r="D286" s="2" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
       <c r="C287" t="n">
         <v>811</v>
       </c>
-      <c s="2" r="D287" t="n">
+      <c r="D287" s="2" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       <c r="C288" t="n">
         <v>620</v>
       </c>
-      <c s="2" r="D288" t="n">
+      <c r="D288" s="2" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="C289" t="n">
         <v>784</v>
       </c>
-      <c s="2" r="D289" t="n">
+      <c r="D289" s="2" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -4464,7 +4464,7 @@
       <c r="C290" t="n">
         <v>475</v>
       </c>
-      <c s="2" r="D290" t="n">
+      <c r="D290" s="2" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -4478,7 +4478,7 @@
       <c r="C291" t="n">
         <v>425</v>
       </c>
-      <c s="2" r="D291" t="n">
+      <c r="D291" s="2" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       <c r="C292" t="n">
         <v>474</v>
       </c>
-      <c s="2" r="D292" t="n">
+      <c r="D292" s="2" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       <c r="C293" t="n">
         <v>894</v>
       </c>
-      <c s="2" r="D293" t="n">
+      <c r="D293" s="2" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       <c r="C294" t="n">
         <v>57</v>
       </c>
-      <c s="2" r="D294" t="n">
+      <c r="D294" s="2" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       <c r="C295" t="n">
         <v>995</v>
       </c>
-      <c s="2" r="D295" t="n">
+      <c r="D295" s="2" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
       <c r="C296" t="n">
         <v>646</v>
       </c>
-      <c s="2" r="D296" t="n">
+      <c r="D296" s="2" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       <c r="C297" t="n">
         <v>817</v>
       </c>
-      <c s="2" r="D297" t="n">
+      <c r="D297" s="2" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       <c r="C298" t="n">
         <v>600</v>
       </c>
-      <c s="2" r="D298" t="n">
+      <c r="D298" s="2" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="C299" t="n">
         <v>849</v>
       </c>
-      <c s="2" r="D299" t="n">
+      <c r="D299" s="2" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
       <c r="C300" t="n">
         <v>134</v>
       </c>
-      <c s="2" r="D300" t="n">
+      <c r="D300" s="2" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
       <c r="C301" t="n">
         <v>307</v>
       </c>
-      <c s="2" r="D301" t="n">
+      <c r="D301" s="2" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       <c r="C302" t="n">
         <v>273</v>
       </c>
-      <c s="2" r="D302" t="n">
+      <c r="D302" s="2" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       <c r="C303" t="n">
         <v>629</v>
       </c>
-      <c s="2" r="D303" t="n">
+      <c r="D303" s="2" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
       <c r="C304" t="n">
         <v>816</v>
       </c>
-      <c s="2" r="D304" t="n">
+      <c r="D304" s="2" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
       <c r="C305" t="n">
         <v>374</v>
       </c>
-      <c s="2" r="D305" t="n">
+      <c r="D305" s="2" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -4688,7 +4688,7 @@
       <c r="C306" t="n">
         <v>788</v>
       </c>
-      <c s="2" r="D306" t="n">
+      <c r="D306" s="2" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
       <c r="C307" t="n">
         <v>696</v>
       </c>
-      <c s="2" r="D307" t="n">
+      <c r="D307" s="2" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       <c r="C308" t="n">
         <v>505</v>
       </c>
-      <c s="2" r="D308" t="n">
+      <c r="D308" s="2" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       <c r="C309" t="n">
         <v>92</v>
       </c>
-      <c s="2" r="D309" t="n">
+      <c r="D309" s="2" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
       <c r="C310" t="n">
         <v>65</v>
       </c>
-      <c s="2" r="D310" t="n">
+      <c r="D310" s="2" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       <c r="C311" t="n">
         <v>574</v>
       </c>
-      <c s="2" r="D311" t="n">
+      <c r="D311" s="2" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -4772,7 +4772,7 @@
       <c r="C312" t="n">
         <v>753</v>
       </c>
-      <c s="2" r="D312" t="n">
+      <c r="D312" s="2" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       <c r="C313" t="n">
         <v>867</v>
       </c>
-      <c s="2" r="D313" t="n">
+      <c r="D313" s="2" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       <c r="C314" t="n">
         <v>650</v>
       </c>
-      <c s="2" r="D314" t="n">
+      <c r="D314" s="2" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
       <c r="C315" t="n">
         <v>51</v>
       </c>
-      <c s="2" r="D315" t="n">
+      <c r="D315" s="2" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       <c r="C316" t="n">
         <v>269</v>
       </c>
-      <c s="2" r="D316" t="n">
+      <c r="D316" s="2" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
       <c r="C317" t="n">
         <v>240</v>
       </c>
-      <c s="2" r="D317" t="n">
+      <c r="D317" s="2" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       <c r="C318" t="n">
         <v>402</v>
       </c>
-      <c s="2" r="D318" t="n">
+      <c r="D318" s="2" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       <c r="C319" t="n">
         <v>412</v>
       </c>
-      <c s="2" r="D319" t="n">
+      <c r="D319" s="2" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       <c r="C320" t="n">
         <v>370</v>
       </c>
-      <c s="2" r="D320" t="n">
+      <c r="D320" s="2" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
       <c r="C321" t="n">
         <v>289</v>
       </c>
-      <c s="2" r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
       <c r="C322" t="n">
         <v>376</v>
       </c>
-      <c s="2" r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       <c r="C323" t="n">
         <v>336</v>
       </c>
-      <c s="2" r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       <c r="C324" t="n">
         <v>425</v>
       </c>
-      <c s="2" r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       <c r="C325" t="n">
         <v>162</v>
       </c>
-      <c s="2" r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -4968,7 +4968,7 @@
       <c r="C326" t="n">
         <v>930</v>
       </c>
-      <c s="2" r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="C327" t="n">
         <v>431</v>
       </c>
-      <c s="2" r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       <c r="C328" t="n">
         <v>54</v>
       </c>
-      <c s="2" r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       <c r="C329" t="n">
         <v>427</v>
       </c>
-      <c s="2" r="D329" t="n">
+      <c r="D329" s="2" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -5024,7 +5024,7 @@
       <c r="C330" t="n">
         <v>973</v>
       </c>
-      <c s="2" r="D330" t="n">
+      <c r="D330" s="2" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       <c r="C331" t="n">
         <v>809</v>
       </c>
-      <c s="2" r="D331" t="n">
+      <c r="D331" s="2" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
       <c r="C332" t="n">
         <v>76</v>
       </c>
-      <c s="2" r="D332" t="n">
+      <c r="D332" s="2" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       <c r="C333" t="n">
         <v>94</v>
       </c>
-      <c s="2" r="D333" t="n">
+      <c r="D333" s="2" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       <c r="C334" t="n">
         <v>45</v>
       </c>
-      <c s="2" r="D334" t="n">
+      <c r="D334" s="2" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -5094,7 +5094,7 @@
       <c r="C335" t="n">
         <v>778</v>
       </c>
-      <c s="2" r="D335" t="n">
+      <c r="D335" s="2" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       <c r="C336" t="n">
         <v>120</v>
       </c>
-      <c s="2" r="D336" t="n">
+      <c r="D336" s="2" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="C337" t="n">
         <v>95</v>
       </c>
-      <c s="2" r="D337" t="n">
+      <c r="D337" s="2" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       <c r="C338" t="n">
         <v>82</v>
       </c>
-      <c s="2" r="D338" t="n">
+      <c r="D338" s="2" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
       <c r="C339" t="n">
         <v>370</v>
       </c>
-      <c s="2" r="D339" t="n">
+      <c r="D339" s="2" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       <c r="C340" t="n">
         <v>688</v>
       </c>
-      <c s="2" r="D340" t="n">
+      <c r="D340" s="2" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
       <c r="C341" t="n">
         <v>86</v>
       </c>
-      <c s="2" r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
       <c r="C342" t="n">
         <v>665</v>
       </c>
-      <c s="2" r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       <c r="C343" t="n">
         <v>340</v>
       </c>
-      <c s="2" r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="C344" t="n">
         <v>417</v>
       </c>
-      <c s="2" r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       <c r="C345" t="n">
         <v>397</v>
       </c>
-      <c s="2" r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       <c r="C346" t="n">
         <v>823</v>
       </c>
-      <c s="2" r="D346" t="n">
+      <c r="D346" s="2" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
       <c r="C347" t="n">
         <v>196</v>
       </c>
-      <c s="2" r="D347" t="n">
+      <c r="D347" s="2" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       <c r="C348" t="n">
         <v>856</v>
       </c>
-      <c s="2" r="D348" t="n">
+      <c r="D348" s="2" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
       <c r="C349" t="n">
         <v>956</v>
       </c>
-      <c s="2" r="D349" t="n">
+      <c r="D349" s="2" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -5304,7 +5304,7 @@
       <c r="C350" t="n">
         <v>92</v>
       </c>
-      <c s="2" r="D350" t="n">
+      <c r="D350" s="2" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
       <c r="C351" t="n">
         <v>310</v>
       </c>
-      <c s="2" r="D351" t="n">
+      <c r="D351" s="2" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       <c r="C352" t="n">
         <v>766</v>
       </c>
-      <c s="2" r="D352" t="n">
+      <c r="D352" s="2" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       <c r="C353" t="n">
         <v>140</v>
       </c>
-      <c s="2" r="D353" t="n">
+      <c r="D353" s="2" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -5360,7 +5360,7 @@
       <c r="C354" t="n">
         <v>346</v>
       </c>
-      <c s="2" r="D354" t="n">
+      <c r="D354" s="2" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
       <c r="C355" t="n">
         <v>68</v>
       </c>
-      <c s="2" r="D355" t="n">
+      <c r="D355" s="2" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       <c r="C356" t="n">
         <v>101</v>
       </c>
-      <c s="2" r="D356" t="n">
+      <c r="D356" s="2" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="C357" t="n">
         <v>541</v>
       </c>
-      <c s="2" r="D357" t="n">
+      <c r="D357" s="2" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       <c r="C358" t="n">
         <v>207</v>
       </c>
-      <c s="2" r="D358" t="n">
+      <c r="D358" s="2" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       <c r="C359" t="n">
         <v>49</v>
       </c>
-      <c s="2" r="D359" t="n">
+      <c r="D359" s="2" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       <c r="C360" t="n">
         <v>633</v>
       </c>
-      <c s="2" r="D360" t="n">
+      <c r="D360" s="2" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       <c r="C361" t="n">
         <v>885</v>
       </c>
-      <c s="2" r="D361" t="n">
+      <c r="D361" s="2" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -5472,7 +5472,7 @@
       <c r="C362" t="n">
         <v>671</v>
       </c>
-      <c s="2" r="D362" t="n">
+      <c r="D362" s="2" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -5486,7 +5486,7 @@
       <c r="C363" t="n">
         <v>757</v>
       </c>
-      <c s="2" r="D363" t="n">
+      <c r="D363" s="2" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="C364" t="n">
         <v>843</v>
       </c>
-      <c s="2" r="D364" t="n">
+      <c r="D364" s="2" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       <c r="C365" t="n">
         <v>530</v>
       </c>
-      <c s="2" r="D365" t="n">
+      <c r="D365" s="2" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="C366" t="n">
         <v>175</v>
       </c>
-      <c s="2" r="D366" t="n">
+      <c r="D366" s="2" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       <c r="C367" t="n">
         <v>732</v>
       </c>
-      <c s="2" r="D367" t="n">
+      <c r="D367" s="2" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       <c r="C368" t="n">
         <v>375</v>
       </c>
-      <c s="2" r="D368" t="n">
+      <c r="D368" s="2" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       <c r="C369" t="n">
         <v>303</v>
       </c>
-      <c s="2" r="D369" t="n">
+      <c r="D369" s="2" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       <c r="C370" t="n">
         <v>765</v>
       </c>
-      <c s="2" r="D370" t="n">
+      <c r="D370" s="2" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -5598,7 +5598,7 @@
       <c r="C371" t="n">
         <v>98</v>
       </c>
-      <c s="2" r="D371" t="n">
+      <c r="D371" s="2" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       <c r="C372" t="n">
         <v>962</v>
       </c>
-      <c s="2" r="D372" t="n">
+      <c r="D372" s="2" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       <c r="C373" t="n">
         <v>76</v>
       </c>
-      <c s="2" r="D373" t="n">
+      <c r="D373" s="2" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -5640,7 +5640,7 @@
       <c r="C374" t="n">
         <v>260</v>
       </c>
-      <c s="2" r="D374" t="n">
+      <c r="D374" s="2" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="C375" t="n">
         <v>328</v>
       </c>
-      <c s="2" r="D375" t="n">
+      <c r="D375" s="2" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       <c r="C376" t="n">
         <v>584</v>
       </c>
-      <c s="2" r="D376" t="n">
+      <c r="D376" s="2" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       <c r="C377" t="n">
         <v>217</v>
       </c>
-      <c s="2" r="D377" t="n">
+      <c r="D377" s="2" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       <c r="C378" t="n">
         <v>534</v>
       </c>
-      <c s="2" r="D378" t="n">
+      <c r="D378" s="2" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -5710,7 +5710,7 @@
       <c r="C379" t="n">
         <v>503</v>
       </c>
-      <c s="2" r="D379" t="n">
+      <c r="D379" s="2" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       <c r="C380" t="n">
         <v>971</v>
       </c>
-      <c s="2" r="D380" t="n">
+      <c r="D380" s="2" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
       <c r="C381" t="n">
         <v>979</v>
       </c>
-      <c s="2" r="D381" t="n">
+      <c r="D381" s="2" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -5752,7 +5752,7 @@
       <c r="C382" t="n">
         <v>797</v>
       </c>
-      <c s="2" r="D382" t="n">
+      <c r="D382" s="2" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       <c r="C383" t="n">
         <v>870</v>
       </c>
-      <c s="2" r="D383" t="n">
+      <c r="D383" s="2" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       <c r="C384" t="n">
         <v>669</v>
       </c>
-      <c s="2" r="D384" t="n">
+      <c r="D384" s="2" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="C385" t="n">
         <v>507</v>
       </c>
-      <c s="2" r="D385" t="n">
+      <c r="D385" s="2" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       <c r="C386" t="n">
         <v>368</v>
       </c>
-      <c s="2" r="D386" t="n">
+      <c r="D386" s="2" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       <c r="C387" t="n">
         <v>606</v>
       </c>
-      <c s="2" r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       <c r="C388" t="n">
         <v>806</v>
       </c>
-      <c s="2" r="D388" t="n">
+      <c r="D388" s="2" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
       <c r="C389" t="n">
         <v>321</v>
       </c>
-      <c s="2" r="D389" t="n">
+      <c r="D389" s="2" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       <c r="C390" t="n">
         <v>958</v>
       </c>
-      <c s="2" r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       <c r="C391" t="n">
         <v>726</v>
       </c>
-      <c s="2" r="D391" t="n">
+      <c r="D391" s="2" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
       <c r="C392" t="n">
         <v>676</v>
       </c>
-      <c s="2" r="D392" t="n">
+      <c r="D392" s="2" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       <c r="C393" t="n">
         <v>479</v>
       </c>
-      <c s="2" r="D393" t="n">
+      <c r="D393" s="2" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       <c r="C394" t="n">
         <v>461</v>
       </c>
-      <c s="2" r="D394" t="n">
+      <c r="D394" s="2" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -5934,7 +5934,7 @@
       <c r="C395" t="n">
         <v>294</v>
       </c>
-      <c s="2" r="D395" t="n">
+      <c r="D395" s="2" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -5948,7 +5948,7 @@
       <c r="C396" t="n">
         <v>224</v>
       </c>
-      <c s="2" r="D396" t="n">
+      <c r="D396" s="2" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -5962,7 +5962,7 @@
       <c r="C397" t="n">
         <v>678</v>
       </c>
-      <c s="2" r="D397" t="n">
+      <c r="D397" s="2" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       <c r="C398" t="n">
         <v>836</v>
       </c>
-      <c s="2" r="D398" t="n">
+      <c r="D398" s="2" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       <c r="C399" t="n">
         <v>381</v>
       </c>
-      <c s="2" r="D399" t="n">
+      <c r="D399" s="2" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       <c r="C400" t="n">
         <v>518</v>
       </c>
-      <c s="2" r="D400" t="n">
+      <c r="D400" s="2" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
       <c r="C401" t="n">
         <v>898</v>
       </c>
-      <c s="2" r="D401" t="n">
+      <c r="D401" s="2" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       <c r="C402" t="n">
         <v>344</v>
       </c>
-      <c s="2" r="D402" t="n">
+      <c r="D402" s="2" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       <c r="C403" t="n">
         <v>204</v>
       </c>
-      <c s="2" r="D403" t="n">
+      <c r="D403" s="2" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       <c r="C404" t="n">
         <v>304</v>
       </c>
-      <c s="2" r="D404" t="n">
+      <c r="D404" s="2" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -6074,7 +6074,7 @@
       <c r="C405" t="n">
         <v>968</v>
       </c>
-      <c s="2" r="D405" t="n">
+      <c r="D405" s="2" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       <c r="C406" t="n">
         <v>466</v>
       </c>
-      <c s="2" r="D406" t="n">
+      <c r="D406" s="2" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       <c r="C407" t="n">
         <v>276</v>
       </c>
-      <c s="2" r="D407" t="n">
+      <c r="D407" s="2" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
       <c r="C408" t="n">
         <v>257</v>
       </c>
-      <c s="2" r="D408" t="n">
+      <c r="D408" s="2" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -6130,7 +6130,7 @@
       <c r="C409" t="n">
         <v>544</v>
       </c>
-      <c s="2" r="D409" t="n">
+      <c r="D409" s="2" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -6144,7 +6144,7 @@
       <c r="C410" t="n">
         <v>183</v>
       </c>
-      <c s="2" r="D410" t="n">
+      <c r="D410" s="2" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       <c r="C411" t="n">
         <v>569</v>
       </c>
-      <c s="2" r="D411" t="n">
+      <c r="D411" s="2" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="C412" t="n">
         <v>963</v>
       </c>
-      <c s="2" r="D412" t="n">
+      <c r="D412" s="2" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
       <c r="C413" t="n">
         <v>136</v>
       </c>
-      <c s="2" r="D413" t="n">
+      <c r="D413" s="2" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -6200,7 +6200,7 @@
       <c r="C414" t="n">
         <v>973</v>
       </c>
-      <c s="2" r="D414" t="n">
+      <c r="D414" s="2" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       <c r="C415" t="n">
         <v>355</v>
       </c>
-      <c s="2" r="D415" t="n">
+      <c r="D415" s="2" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -6228,7 +6228,7 @@
       <c r="C416" t="n">
         <v>809</v>
       </c>
-      <c s="2" r="D416" t="n">
+      <c r="D416" s="2" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       <c r="C417" t="n">
         <v>82</v>
       </c>
-      <c s="2" r="D417" t="n">
+      <c r="D417" s="2" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       <c r="C418" t="n">
         <v>850</v>
       </c>
-      <c s="2" r="D418" t="n">
+      <c r="D418" s="2" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       <c r="C419" t="n">
         <v>334</v>
       </c>
-      <c s="2" r="D419" t="n">
+      <c r="D419" s="2" t="n">
         <v>41274</v>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       <c r="C420" t="n">
         <v>638</v>
       </c>
-      <c s="2" r="D420" t="n">
+      <c r="D420" s="2" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       <c r="C421" t="n">
         <v>813</v>
       </c>
-      <c s="2" r="D421" t="n">
+      <c r="D421" s="2" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       <c r="C422" t="n">
         <v>771</v>
       </c>
-      <c s="2" r="D422" t="n">
+      <c r="D422" s="2" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       <c r="C423" t="n">
         <v>999</v>
       </c>
-      <c s="2" r="D423" t="n">
+      <c r="D423" s="2" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
       <c r="C424" t="n">
         <v>653</v>
       </c>
-      <c s="2" r="D424" t="n">
+      <c r="D424" s="2" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -6354,7 +6354,7 @@
       <c r="C425" t="n">
         <v>500</v>
       </c>
-      <c s="2" r="D425" t="n">
+      <c r="D425" s="2" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="C426" t="n">
         <v>221</v>
       </c>
-      <c s="2" r="D426" t="n">
+      <c r="D426" s="2" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -6382,7 +6382,7 @@
       <c r="C427" t="n">
         <v>710</v>
       </c>
-      <c s="2" r="D427" t="n">
+      <c r="D427" s="2" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       <c r="C428" t="n">
         <v>728</v>
       </c>
-      <c s="2" r="D428" t="n">
+      <c r="D428" s="2" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       <c r="C429" t="n">
         <v>759</v>
       </c>
-      <c s="2" r="D429" t="n">
+      <c r="D429" s="2" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       <c r="C430" t="n">
         <v>744</v>
       </c>
-      <c s="2" r="D430" t="n">
+      <c r="D430" s="2" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       <c r="C431" t="n">
         <v>752</v>
       </c>
-      <c s="2" r="D431" t="n">
+      <c r="D431" s="2" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -6452,7 +6452,7 @@
       <c r="C432" t="n">
         <v>863</v>
       </c>
-      <c s="2" r="D432" t="n">
+      <c r="D432" s="2" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       <c r="C433" t="n">
         <v>355</v>
       </c>
-      <c s="2" r="D433" t="n">
+      <c r="D433" s="2" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -6480,7 +6480,7 @@
       <c r="C434" t="n">
         <v>447</v>
       </c>
-      <c s="2" r="D434" t="n">
+      <c r="D434" s="2" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       <c r="C435" t="n">
         <v>161</v>
       </c>
-      <c s="2" r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       <c r="C436" t="n">
         <v>497</v>
       </c>
-      <c s="2" r="D436" t="n">
+      <c r="D436" s="2" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -6522,7 +6522,7 @@
       <c r="C437" t="n">
         <v>54</v>
       </c>
-      <c s="2" r="D437" t="n">
+      <c r="D437" s="2" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
       <c r="C438" t="n">
         <v>580</v>
       </c>
-      <c s="2" r="D438" t="n">
+      <c r="D438" s="2" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       <c r="C439" t="n">
         <v>695</v>
       </c>
-      <c s="2" r="D439" t="n">
+      <c r="D439" s="2" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
       <c r="C440" t="n">
         <v>562</v>
       </c>
-      <c s="2" r="D440" t="n">
+      <c r="D440" s="2" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
       <c r="C441" t="n">
         <v>484</v>
       </c>
-      <c s="2" r="D441" t="n">
+      <c r="D441" s="2" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -6592,7 +6592,7 @@
       <c r="C442" t="n">
         <v>649</v>
       </c>
-      <c s="2" r="D442" t="n">
+      <c r="D442" s="2" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       <c r="C443" t="n">
         <v>163</v>
       </c>
-      <c s="2" r="D443" t="n">
+      <c r="D443" s="2" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -6620,7 +6620,7 @@
       <c r="C444" t="n">
         <v>898</v>
       </c>
-      <c s="2" r="D444" t="n">
+      <c r="D444" s="2" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -6634,7 +6634,7 @@
       <c r="C445" t="n">
         <v>545</v>
       </c>
-      <c s="2" r="D445" t="n">
+      <c r="D445" s="2" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       <c r="C446" t="n">
         <v>237</v>
       </c>
-      <c s="2" r="D446" t="n">
+      <c r="D446" s="2" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
       <c r="C447" t="n">
         <v>589</v>
       </c>
-      <c s="2" r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
       <c r="C448" t="n">
         <v>509</v>
       </c>
-      <c s="2" r="D448" t="n">
+      <c r="D448" s="2" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       <c r="C449" t="n">
         <v>116</v>
       </c>
-      <c s="2" r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       <c r="C450" t="n">
         <v>383</v>
       </c>
-      <c s="2" r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -6718,7 +6718,7 @@
       <c r="C451" t="n">
         <v>498</v>
       </c>
-      <c s="2" r="D451" t="n">
+      <c r="D451" s="2" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -6732,7 +6732,7 @@
       <c r="C452" t="n">
         <v>233</v>
       </c>
-      <c s="2" r="D452" t="n">
+      <c r="D452" s="2" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       <c r="C453" t="n">
         <v>911</v>
       </c>
-      <c s="2" r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       <c r="C454" t="n">
         <v>158</v>
       </c>
-      <c s="2" r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="C455" t="n">
         <v>996</v>
       </c>
-      <c s="2" r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -6788,7 +6788,7 @@
       <c r="C456" t="n">
         <v>668</v>
       </c>
-      <c s="2" r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       <c r="C457" t="n">
         <v>166</v>
       </c>
-      <c s="2" r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       <c r="C458" t="n">
         <v>148</v>
       </c>
-      <c s="2" r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -6830,7 +6830,7 @@
       <c r="C459" t="n">
         <v>333</v>
       </c>
-      <c s="2" r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -6844,7 +6844,7 @@
       <c r="C460" t="n">
         <v>319</v>
       </c>
-      <c s="2" r="D460" t="n">
+      <c r="D460" s="2" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -6858,7 +6858,7 @@
       <c r="C461" t="n">
         <v>520</v>
       </c>
-      <c s="2" r="D461" t="n">
+      <c r="D461" s="2" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
       <c r="C462" t="n">
         <v>822</v>
       </c>
-      <c s="2" r="D462" t="n">
+      <c r="D462" s="2" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       <c r="C463" t="n">
         <v>36</v>
       </c>
-      <c s="2" r="D463" t="n">
+      <c r="D463" s="2" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
       <c r="C464" t="n">
         <v>490</v>
       </c>
-      <c s="2" r="D464" t="n">
+      <c r="D464" s="2" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -6914,7 +6914,7 @@
       <c r="C465" t="n">
         <v>561</v>
       </c>
-      <c s="2" r="D465" t="n">
+      <c r="D465" s="2" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       <c r="C466" t="n">
         <v>195</v>
       </c>
-      <c s="2" r="D466" t="n">
+      <c r="D466" s="2" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -6942,7 +6942,7 @@
       <c r="C467" t="n">
         <v>472</v>
       </c>
-      <c s="2" r="D467" t="n">
+      <c r="D467" s="2" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
       <c r="C468" t="n">
         <v>581</v>
       </c>
-      <c s="2" r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
       <c r="C469" t="n">
         <v>48</v>
       </c>
-      <c s="2" r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -6984,7 +6984,7 @@
       <c r="C470" t="n">
         <v>666</v>
       </c>
-      <c s="2" r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -6998,7 +6998,7 @@
       <c r="C471" t="n">
         <v>997</v>
       </c>
-      <c s="2" r="D471" t="n">
+      <c r="D471" s="2" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       <c r="C472" t="n">
         <v>323</v>
       </c>
-      <c s="2" r="D472" t="n">
+      <c r="D472" s="2" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       <c r="C473" t="n">
         <v>573</v>
       </c>
-      <c s="2" r="D473" t="n">
+      <c r="D473" s="2" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -7040,7 +7040,7 @@
       <c r="C474" t="n">
         <v>988</v>
       </c>
-      <c s="2" r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
       <c r="C475" t="n">
         <v>685</v>
       </c>
-      <c s="2" r="D475" t="n">
+      <c r="D475" s="2" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       <c r="C476" t="n">
         <v>602</v>
       </c>
-      <c s="2" r="D476" t="n">
+      <c r="D476" s="2" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="C477" t="n">
         <v>167</v>
       </c>
-      <c s="2" r="D477" t="n">
+      <c r="D477" s="2" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       <c r="C478" t="n">
         <v>161</v>
       </c>
-      <c s="2" r="D478" t="n">
+      <c r="D478" s="2" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       <c r="C479" t="n">
         <v>968</v>
       </c>
-      <c s="2" r="D479" t="n">
+      <c r="D479" s="2" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       <c r="C480" t="n">
         <v>63</v>
       </c>
-      <c s="2" r="D480" t="n">
+      <c r="D480" s="2" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -7138,7 +7138,7 @@
       <c r="C481" t="n">
         <v>524</v>
       </c>
-      <c s="2" r="D481" t="n">
+      <c r="D481" s="2" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       <c r="C482" t="n">
         <v>988</v>
       </c>
-      <c s="2" r="D482" t="n">
+      <c r="D482" s="2" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -7166,7 +7166,7 @@
       <c r="C483" t="n">
         <v>485</v>
       </c>
-      <c s="2" r="D483" t="n">
+      <c r="D483" s="2" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
       <c r="C484" t="n">
         <v>203</v>
       </c>
-      <c s="2" r="D484" t="n">
+      <c r="D484" s="2" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
       <c r="C485" t="n">
         <v>225</v>
       </c>
-      <c s="2" r="D485" t="n">
+      <c r="D485" s="2" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       <c r="C486" t="n">
         <v>225</v>
       </c>
-      <c s="2" r="D486" t="n">
+      <c r="D486" s="2" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -7222,7 +7222,7 @@
       <c r="C487" t="n">
         <v>694</v>
       </c>
-      <c s="2" r="D487" t="n">
+      <c r="D487" s="2" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       <c r="C488" t="n">
         <v>893</v>
       </c>
-      <c s="2" r="D488" t="n">
+      <c r="D488" s="2" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       <c r="C489" t="n">
         <v>951</v>
       </c>
-      <c s="2" r="D489" t="n">
+      <c r="D489" s="2" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -7264,7 +7264,7 @@
       <c r="C490" t="n">
         <v>30</v>
       </c>
-      <c s="2" r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
       <c r="C491" t="n">
         <v>215</v>
       </c>
-      <c s="2" r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -7292,7 +7292,7 @@
       <c r="C492" t="n">
         <v>881</v>
       </c>
-      <c s="2" r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -7306,7 +7306,7 @@
       <c r="C493" t="n">
         <v>665</v>
       </c>
-      <c s="2" r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -7320,7 +7320,7 @@
       <c r="C494" t="n">
         <v>556</v>
       </c>
-      <c s="2" r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       <c r="C495" t="n">
         <v>374</v>
       </c>
-      <c s="2" r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -7348,7 +7348,7 @@
       <c r="C496" t="n">
         <v>59</v>
       </c>
-      <c s="2" r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -7362,7 +7362,7 @@
       <c r="C497" t="n">
         <v>365</v>
       </c>
-      <c s="2" r="D497" t="n">
+      <c r="D497" s="2" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       <c r="C498" t="n">
         <v>816</v>
       </c>
-      <c s="2" r="D498" t="n">
+      <c r="D498" s="2" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
       <c r="C499" t="n">
         <v>198</v>
       </c>
-      <c s="2" r="D499" t="n">
+      <c r="D499" s="2" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       <c r="C500" t="n">
         <v>277</v>
       </c>
-      <c s="2" r="D500" t="n">
+      <c r="D500" s="2" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -7418,7 +7418,7 @@
       <c r="C501" t="n">
         <v>920</v>
       </c>
-      <c s="2" r="D501" t="n">
+      <c r="D501" s="2" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       <c r="C502" t="n">
         <v>287</v>
       </c>
-      <c s="2" r="D502" t="n">
+      <c r="D502" s="2" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       <c r="C503" t="n">
         <v>186</v>
       </c>
-      <c s="2" r="D503" t="n">
+      <c r="D503" s="2" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -7460,7 +7460,7 @@
       <c r="C504" t="n">
         <v>356</v>
       </c>
-      <c s="2" r="D504" t="n">
+      <c r="D504" s="2" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       <c r="C505" t="n">
         <v>170</v>
       </c>
-      <c s="2" r="D505" t="n">
+      <c r="D505" s="2" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       <c r="C506" t="n">
         <v>360</v>
       </c>
-      <c s="2" r="D506" t="n">
+      <c r="D506" s="2" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -7502,7 +7502,7 @@
       <c r="C507" t="n">
         <v>111</v>
       </c>
-      <c s="2" r="D507" t="n">
+      <c r="D507" s="2" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="C508" t="n">
         <v>291</v>
       </c>
-      <c s="2" r="D508" t="n">
+      <c r="D508" s="2" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -7530,7 +7530,7 @@
       <c r="C509" t="n">
         <v>525</v>
       </c>
-      <c s="2" r="D509" t="n">
+      <c r="D509" s="2" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
       <c r="C510" t="n">
         <v>126</v>
       </c>
-      <c s="2" r="D510" t="n">
+      <c r="D510" s="2" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -7558,7 +7558,7 @@
       <c r="C511" t="n">
         <v>800</v>
       </c>
-      <c s="2" r="D511" t="n">
+      <c r="D511" s="2" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -7572,7 +7572,7 @@
       <c r="C512" t="n">
         <v>618</v>
       </c>
-      <c s="2" r="D512" t="n">
+      <c r="D512" s="2" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       <c r="C513" t="n">
         <v>947</v>
       </c>
-      <c s="2" r="D513" t="n">
+      <c r="D513" s="2" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
       <c r="C514" t="n">
         <v>685</v>
       </c>
-      <c s="2" r="D514" t="n">
+      <c r="D514" s="2" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -7614,7 +7614,7 @@
       <c r="C515" t="n">
         <v>765</v>
       </c>
-      <c s="2" r="D515" t="n">
+      <c r="D515" s="2" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -7628,7 +7628,7 @@
       <c r="C516" t="n">
         <v>62</v>
       </c>
-      <c s="2" r="D516" t="n">
+      <c r="D516" s="2" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       <c r="C517" t="n">
         <v>946</v>
       </c>
-      <c s="2" r="D517" t="n">
+      <c r="D517" s="2" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -7656,7 +7656,7 @@
       <c r="C518" t="n">
         <v>904</v>
       </c>
-      <c s="2" r="D518" t="n">
+      <c r="D518" s="2" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -7670,7 +7670,7 @@
       <c r="C519" t="n">
         <v>160</v>
       </c>
-      <c s="2" r="D519" t="n">
+      <c r="D519" s="2" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -7684,7 +7684,7 @@
       <c r="C520" t="n">
         <v>886</v>
       </c>
-      <c s="2" r="D520" t="n">
+      <c r="D520" s="2" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
       <c r="C521" t="n">
         <v>740</v>
       </c>
-      <c s="2" r="D521" t="n">
+      <c r="D521" s="2" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       <c r="C522" t="n">
         <v>76</v>
       </c>
-      <c s="2" r="D522" t="n">
+      <c r="D522" s="2" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       <c r="C523" t="n">
         <v>265</v>
       </c>
-      <c s="2" r="D523" t="n">
+      <c r="D523" s="2" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -7740,7 +7740,7 @@
       <c r="C524" t="n">
         <v>299</v>
       </c>
-      <c s="2" r="D524" t="n">
+      <c r="D524" s="2" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -7754,7 +7754,7 @@
       <c r="C525" t="n">
         <v>295</v>
       </c>
-      <c s="2" r="D525" t="n">
+      <c r="D525" s="2" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="C526" t="n">
         <v>813</v>
       </c>
-      <c s="2" r="D526" t="n">
+      <c r="D526" s="2" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       <c r="C527" t="n">
         <v>925</v>
       </c>
-      <c s="2" r="D527" t="n">
+      <c r="D527" s="2" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       <c r="C528" t="n">
         <v>494</v>
       </c>
-      <c s="2" r="D528" t="n">
+      <c r="D528" s="2" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -7810,7 +7810,7 @@
       <c r="C529" t="n">
         <v>220</v>
       </c>
-      <c s="2" r="D529" t="n">
+      <c r="D529" s="2" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -7824,7 +7824,7 @@
       <c r="C530" t="n">
         <v>728</v>
       </c>
-      <c s="2" r="D530" t="n">
+      <c r="D530" s="2" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -7838,7 +7838,7 @@
       <c r="C531" t="n">
         <v>275</v>
       </c>
-      <c s="2" r="D531" t="n">
+      <c r="D531" s="2" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       <c r="C532" t="n">
         <v>591</v>
       </c>
-      <c s="2" r="D532" t="n">
+      <c r="D532" s="2" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       <c r="C533" t="n">
         <v>764</v>
       </c>
-      <c s="2" r="D533" t="n">
+      <c r="D533" s="2" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -7880,7 +7880,7 @@
       <c r="C534" t="n">
         <v>39</v>
       </c>
-      <c s="2" r="D534" t="n">
+      <c r="D534" s="2" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -7894,7 +7894,7 @@
       <c r="C535" t="n">
         <v>562</v>
       </c>
-      <c s="2" r="D535" t="n">
+      <c r="D535" s="2" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       <c r="C536" t="n">
         <v>977</v>
       </c>
-      <c s="2" r="D536" t="n">
+      <c r="D536" s="2" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       <c r="C537" t="n">
         <v>297</v>
       </c>
-      <c s="2" r="D537" t="n">
+      <c r="D537" s="2" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       <c r="C538" t="n">
         <v>462</v>
       </c>
-      <c s="2" r="D538" t="n">
+      <c r="D538" s="2" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
       <c r="C539" t="n">
         <v>148</v>
       </c>
-      <c s="2" r="D539" t="n">
+      <c r="D539" s="2" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -7964,7 +7964,7 @@
       <c r="C540" t="n">
         <v>691</v>
       </c>
-      <c s="2" r="D540" t="n">
+      <c r="D540" s="2" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       <c r="C541" t="n">
         <v>27</v>
       </c>
-      <c s="2" r="D541" t="n">
+      <c r="D541" s="2" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -7992,7 +7992,7 @@
       <c r="C542" t="n">
         <v>821</v>
       </c>
-      <c s="2" r="D542" t="n">
+      <c r="D542" s="2" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       <c r="C543" t="n">
         <v>535</v>
       </c>
-      <c s="2" r="D543" t="n">
+      <c r="D543" s="2" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
       <c r="C544" t="n">
         <v>112</v>
       </c>
-      <c s="2" r="D544" t="n">
+      <c r="D544" s="2" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -8034,7 +8034,7 @@
       <c r="C545" t="n">
         <v>561</v>
       </c>
-      <c s="2" r="D545" t="n">
+      <c r="D545" s="2" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       <c r="C546" t="n">
         <v>733</v>
       </c>
-      <c s="2" r="D546" t="n">
+      <c r="D546" s="2" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
       <c r="C547" t="n">
         <v>570</v>
       </c>
-      <c s="2" r="D547" t="n">
+      <c r="D547" s="2" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="C548" t="n">
         <v>869</v>
       </c>
-      <c s="2" r="D548" t="n">
+      <c r="D548" s="2" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       <c r="C549" t="n">
         <v>120</v>
       </c>
-      <c s="2" r="D549" t="n">
+      <c r="D549" s="2" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -8104,7 +8104,7 @@
       <c r="C550" t="n">
         <v>215</v>
       </c>
-      <c s="2" r="D550" t="n">
+      <c r="D550" s="2" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
       <c r="C551" t="n">
         <v>241</v>
       </c>
-      <c s="2" r="D551" t="n">
+      <c r="D551" s="2" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
       <c r="C552" t="n">
         <v>144</v>
       </c>
-      <c s="2" r="D552" t="n">
+      <c r="D552" s="2" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       <c r="C553" t="n">
         <v>624</v>
       </c>
-      <c s="2" r="D553" t="n">
+      <c r="D553" s="2" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
       <c r="C554" t="n">
         <v>663</v>
       </c>
-      <c s="2" r="D554" t="n">
+      <c r="D554" s="2" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -8174,7 +8174,7 @@
       <c r="C555" t="n">
         <v>481</v>
       </c>
-      <c s="2" r="D555" t="n">
+      <c r="D555" s="2" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       <c r="C556" t="n">
         <v>271</v>
       </c>
-      <c s="2" r="D556" t="n">
+      <c r="D556" s="2" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       <c r="C557" t="n">
         <v>707</v>
       </c>
-      <c s="2" r="D557" t="n">
+      <c r="D557" s="2" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -8216,7 +8216,7 @@
       <c r="C558" t="n">
         <v>202</v>
       </c>
-      <c s="2" r="D558" t="n">
+      <c r="D558" s="2" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       <c r="C559" t="n">
         <v>552</v>
       </c>
-      <c s="2" r="D559" t="n">
+      <c r="D559" s="2" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -8244,7 +8244,7 @@
       <c r="C560" t="n">
         <v>107</v>
       </c>
-      <c s="2" r="D560" t="n">
+      <c r="D560" s="2" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -8258,7 +8258,7 @@
       <c r="C561" t="n">
         <v>190</v>
       </c>
-      <c s="2" r="D561" t="n">
+      <c r="D561" s="2" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -8272,7 +8272,7 @@
       <c r="C562" t="n">
         <v>97</v>
       </c>
-      <c s="2" r="D562" t="n">
+      <c r="D562" s="2" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -8286,7 +8286,7 @@
       <c r="C563" t="n">
         <v>937</v>
       </c>
-      <c s="2" r="D563" t="n">
+      <c r="D563" s="2" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -8300,7 +8300,7 @@
       <c r="C564" t="n">
         <v>662</v>
       </c>
-      <c s="2" r="D564" t="n">
+      <c r="D564" s="2" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -8314,7 +8314,7 @@
       <c r="C565" t="n">
         <v>589</v>
       </c>
-      <c s="2" r="D565" t="n">
+      <c r="D565" s="2" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       <c r="C566" t="n">
         <v>259</v>
       </c>
-      <c s="2" r="D566" t="n">
+      <c r="D566" s="2" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -8342,7 +8342,7 @@
       <c r="C567" t="n">
         <v>997</v>
       </c>
-      <c s="2" r="D567" t="n">
+      <c r="D567" s="2" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="C568" t="n">
         <v>290</v>
       </c>
-      <c s="2" r="D568" t="n">
+      <c r="D568" s="2" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -8370,7 +8370,7 @@
       <c r="C569" t="n">
         <v>346</v>
       </c>
-      <c s="2" r="D569" t="n">
+      <c r="D569" s="2" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -8384,7 +8384,7 @@
       <c r="C570" t="n">
         <v>445</v>
       </c>
-      <c s="2" r="D570" t="n">
+      <c r="D570" s="2" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -8398,7 +8398,7 @@
       <c r="C571" t="n">
         <v>434</v>
       </c>
-      <c s="2" r="D571" t="n">
+      <c r="D571" s="2" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -8412,7 +8412,7 @@
       <c r="C572" t="n">
         <v>553</v>
       </c>
-      <c s="2" r="D572" t="n">
+      <c r="D572" s="2" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       <c r="C573" t="n">
         <v>131</v>
       </c>
-      <c s="2" r="D573" t="n">
+      <c r="D573" s="2" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
       <c r="C574" t="n">
         <v>375</v>
       </c>
-      <c s="2" r="D574" t="n">
+      <c r="D574" s="2" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -8454,7 +8454,7 @@
       <c r="C575" t="n">
         <v>499</v>
       </c>
-      <c s="2" r="D575" t="n">
+      <c r="D575" s="2" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
       <c r="C576" t="n">
         <v>577</v>
       </c>
-      <c s="2" r="D576" t="n">
+      <c r="D576" s="2" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
       <c r="C577" t="n">
         <v>812</v>
       </c>
-      <c s="2" r="D577" t="n">
+      <c r="D577" s="2" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
       <c r="C578" t="n">
         <v>153</v>
       </c>
-      <c s="2" r="D578" t="n">
+      <c r="D578" s="2" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       <c r="C579" t="n">
         <v>902</v>
       </c>
-      <c s="2" r="D579" t="n">
+      <c r="D579" s="2" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       <c r="C580" t="n">
         <v>688</v>
       </c>
-      <c s="2" r="D580" t="n">
+      <c r="D580" s="2" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       <c r="C581" t="n">
         <v>688</v>
       </c>
-      <c s="2" r="D581" t="n">
+      <c r="D581" s="2" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -8552,7 +8552,7 @@
       <c r="C582" t="n">
         <v>495</v>
       </c>
-      <c s="2" r="D582" t="n">
+      <c r="D582" s="2" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -8566,7 +8566,7 @@
       <c r="C583" t="n">
         <v>719</v>
       </c>
-      <c s="2" r="D583" t="n">
+      <c r="D583" s="2" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -8580,7 +8580,7 @@
       <c r="C584" t="n">
         <v>140</v>
       </c>
-      <c s="2" r="D584" t="n">
+      <c r="D584" s="2" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -8594,7 +8594,7 @@
       <c r="C585" t="n">
         <v>603</v>
       </c>
-      <c s="2" r="D585" t="n">
+      <c r="D585" s="2" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="C586" t="n">
         <v>170</v>
       </c>
-      <c s="2" r="D586" t="n">
+      <c r="D586" s="2" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
       <c r="C587" t="n">
         <v>423</v>
       </c>
-      <c s="2" r="D587" t="n">
+      <c r="D587" s="2" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="C588" t="n">
         <v>778</v>
       </c>
-      <c s="2" r="D588" t="n">
+      <c r="D588" s="2" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -8650,7 +8650,7 @@
       <c r="C589" t="n">
         <v>47</v>
       </c>
-      <c s="2" r="D589" t="n">
+      <c r="D589" s="2" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -8664,7 +8664,7 @@
       <c r="C590" t="n">
         <v>725</v>
       </c>
-      <c s="2" r="D590" t="n">
+      <c r="D590" s="2" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
       <c r="C591" t="n">
         <v>504</v>
       </c>
-      <c s="2" r="D591" t="n">
+      <c r="D591" s="2" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -8692,7 +8692,7 @@
       <c r="C592" t="n">
         <v>643</v>
       </c>
-      <c s="2" r="D592" t="n">
+      <c r="D592" s="2" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="C593" t="n">
         <v>623</v>
       </c>
-      <c s="2" r="D593" t="n">
+      <c r="D593" s="2" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -8720,7 +8720,7 @@
       <c r="C594" t="n">
         <v>540</v>
       </c>
-      <c s="2" r="D594" t="n">
+      <c r="D594" s="2" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       <c r="C595" t="n">
         <v>200</v>
       </c>
-      <c s="2" r="D595" t="n">
+      <c r="D595" s="2" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       <c r="C596" t="n">
         <v>919</v>
       </c>
-      <c s="2" r="D596" t="n">
+      <c r="D596" s="2" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="C597" t="n">
         <v>555</v>
       </c>
-      <c s="2" r="D597" t="n">
+      <c r="D597" s="2" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       <c r="C598" t="n">
         <v>873</v>
       </c>
-      <c s="2" r="D598" t="n">
+      <c r="D598" s="2" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
       <c r="C599" t="n">
         <v>408</v>
       </c>
-      <c s="2" r="D599" t="n">
+      <c r="D599" s="2" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -8804,7 +8804,7 @@
       <c r="C600" t="n">
         <v>595</v>
       </c>
-      <c s="2" r="D600" t="n">
+      <c r="D600" s="2" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -8818,7 +8818,7 @@
       <c r="C601" t="n">
         <v>948</v>
       </c>
-      <c s="2" r="D601" t="n">
+      <c r="D601" s="2" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
       <c r="C602" t="n">
         <v>29</v>
       </c>
-      <c s="2" r="D602" t="n">
+      <c r="D602" s="2" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       <c r="C603" t="n">
         <v>515</v>
       </c>
-      <c s="2" r="D603" t="n">
+      <c r="D603" s="2" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       <c r="C604" t="n">
         <v>452</v>
       </c>
-      <c s="2" r="D604" t="n">
+      <c r="D604" s="2" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -8874,7 +8874,7 @@
       <c r="C605" t="n">
         <v>142</v>
       </c>
-      <c s="2" r="D605" t="n">
+      <c r="D605" s="2" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
       <c r="C606" t="n">
         <v>610</v>
       </c>
-      <c s="2" r="D606" t="n">
+      <c r="D606" s="2" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
       <c r="C607" t="n">
         <v>638</v>
       </c>
-      <c s="2" r="D607" t="n">
+      <c r="D607" s="2" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       <c r="C608" t="n">
         <v>578</v>
       </c>
-      <c s="2" r="D608" t="n">
+      <c r="D608" s="2" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -8930,7 +8930,7 @@
       <c r="C609" t="n">
         <v>42</v>
       </c>
-      <c s="2" r="D609" t="n">
+      <c r="D609" s="2" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
       <c r="C610" t="n">
         <v>100</v>
       </c>
-      <c s="2" r="D610" t="n">
+      <c r="D610" s="2" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
       <c r="C611" t="n">
         <v>555</v>
       </c>
-      <c s="2" r="D611" t="n">
+      <c r="D611" s="2" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -8972,7 +8972,7 @@
       <c r="C612" t="n">
         <v>65</v>
       </c>
-      <c s="2" r="D612" t="n">
+      <c r="D612" s="2" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
       <c r="C613" t="n">
         <v>529</v>
       </c>
-      <c s="2" r="D613" t="n">
+      <c r="D613" s="2" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -9000,7 +9000,7 @@
       <c r="C614" t="n">
         <v>693</v>
       </c>
-      <c s="2" r="D614" t="n">
+      <c r="D614" s="2" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
       <c r="C615" t="n">
         <v>895</v>
       </c>
-      <c s="2" r="D615" t="n">
+      <c r="D615" s="2" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -9028,7 +9028,7 @@
       <c r="C616" t="n">
         <v>129</v>
       </c>
-      <c s="2" r="D616" t="n">
+      <c r="D616" s="2" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -9042,7 +9042,7 @@
       <c r="C617" t="n">
         <v>810</v>
       </c>
-      <c s="2" r="D617" t="n">
+      <c r="D617" s="2" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
       <c r="C618" t="n">
         <v>980</v>
       </c>
-      <c s="2" r="D618" t="n">
+      <c r="D618" s="2" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       <c r="C619" t="n">
         <v>133</v>
       </c>
-      <c s="2" r="D619" t="n">
+      <c r="D619" s="2" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -9084,7 +9084,7 @@
       <c r="C620" t="n">
         <v>162</v>
       </c>
-      <c s="2" r="D620" t="n">
+      <c r="D620" s="2" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -9098,7 +9098,7 @@
       <c r="C621" t="n">
         <v>201</v>
       </c>
-      <c s="2" r="D621" t="n">
+      <c r="D621" s="2" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -9112,7 +9112,7 @@
       <c r="C622" t="n">
         <v>962</v>
       </c>
-      <c s="2" r="D622" t="n">
+      <c r="D622" s="2" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -9126,7 +9126,7 @@
       <c r="C623" t="n">
         <v>367</v>
       </c>
-      <c s="2" r="D623" t="n">
+      <c r="D623" s="2" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
       <c r="C624" t="n">
         <v>833</v>
       </c>
-      <c s="2" r="D624" t="n">
+      <c r="D624" s="2" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -9154,7 +9154,7 @@
       <c r="C625" t="n">
         <v>769</v>
       </c>
-      <c s="2" r="D625" t="n">
+      <c r="D625" s="2" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -9168,7 +9168,7 @@
       <c r="C626" t="n">
         <v>874</v>
       </c>
-      <c s="2" r="D626" t="n">
+      <c r="D626" s="2" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -9182,7 +9182,7 @@
       <c r="C627" t="n">
         <v>668</v>
       </c>
-      <c s="2" r="D627" t="n">
+      <c r="D627" s="2" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       <c r="C628" t="n">
         <v>706</v>
       </c>
-      <c s="2" r="D628" t="n">
+      <c r="D628" s="2" t="n">
         <v>41274</v>
       </c>
     </row>
@@ -9210,7 +9210,7 @@
       <c r="C629" t="n">
         <v>882</v>
       </c>
-      <c s="2" r="D629" t="n">
+      <c r="D629" s="2" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -9224,7 +9224,7 @@
       <c r="C630" t="n">
         <v>682</v>
       </c>
-      <c s="2" r="D630" t="n">
+      <c r="D630" s="2" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -9238,7 +9238,7 @@
       <c r="C631" t="n">
         <v>146</v>
       </c>
-      <c s="2" r="D631" t="n">
+      <c r="D631" s="2" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
       <c r="C632" t="n">
         <v>755</v>
       </c>
-      <c s="2" r="D632" t="n">
+      <c r="D632" s="2" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -9266,7 +9266,7 @@
       <c r="C633" t="n">
         <v>853</v>
       </c>
-      <c s="2" r="D633" t="n">
+      <c r="D633" s="2" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -9280,7 +9280,7 @@
       <c r="C634" t="n">
         <v>69</v>
       </c>
-      <c s="2" r="D634" t="n">
+      <c r="D634" s="2" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -9294,7 +9294,7 @@
       <c r="C635" t="n">
         <v>957</v>
       </c>
-      <c s="2" r="D635" t="n">
+      <c r="D635" s="2" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
       <c r="C636" t="n">
         <v>673</v>
       </c>
-      <c s="2" r="D636" t="n">
+      <c r="D636" s="2" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -9322,7 +9322,7 @@
       <c r="C637" t="n">
         <v>385</v>
       </c>
-      <c s="2" r="D637" t="n">
+      <c r="D637" s="2" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       <c r="C638" t="n">
         <v>570</v>
       </c>
-      <c s="2" r="D638" t="n">
+      <c r="D638" s="2" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -9350,7 +9350,7 @@
       <c r="C639" t="n">
         <v>990</v>
       </c>
-      <c s="2" r="D639" t="n">
+      <c r="D639" s="2" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
       <c r="C640" t="n">
         <v>728</v>
       </c>
-      <c s="2" r="D640" t="n">
+      <c r="D640" s="2" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
       <c r="C641" t="n">
         <v>541</v>
       </c>
-      <c s="2" r="D641" t="n">
+      <c r="D641" s="2" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -9392,7 +9392,7 @@
       <c r="C642" t="n">
         <v>795</v>
       </c>
-      <c s="2" r="D642" t="n">
+      <c r="D642" s="2" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -9406,7 +9406,7 @@
       <c r="C643" t="n">
         <v>520</v>
       </c>
-      <c s="2" r="D643" t="n">
+      <c r="D643" s="2" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       <c r="C644" t="n">
         <v>937</v>
       </c>
-      <c s="2" r="D644" t="n">
+      <c r="D644" s="2" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
       <c r="C645" t="n">
         <v>523</v>
       </c>
-      <c s="2" r="D645" t="n">
+      <c r="D645" s="2" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -9448,7 +9448,7 @@
       <c r="C646" t="n">
         <v>497</v>
       </c>
-      <c s="2" r="D646" t="n">
+      <c r="D646" s="2" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -9462,7 +9462,7 @@
       <c r="C647" t="n">
         <v>553</v>
       </c>
-      <c s="2" r="D647" t="n">
+      <c r="D647" s="2" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       <c r="C648" t="n">
         <v>156</v>
       </c>
-      <c s="2" r="D648" t="n">
+      <c r="D648" s="2" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       <c r="C649" t="n">
         <v>577</v>
       </c>
-      <c s="2" r="D649" t="n">
+      <c r="D649" s="2" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
       <c r="C650" t="n">
         <v>732</v>
       </c>
-      <c s="2" r="D650" t="n">
+      <c r="D650" s="2" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
       <c r="C651" t="n">
         <v>686</v>
       </c>
-      <c s="2" r="D651" t="n">
+      <c r="D651" s="2" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -9532,7 +9532,7 @@
       <c r="C652" t="n">
         <v>842</v>
       </c>
-      <c s="2" r="D652" t="n">
+      <c r="D652" s="2" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       <c r="C653" t="n">
         <v>63</v>
       </c>
-      <c s="2" r="D653" t="n">
+      <c r="D653" s="2" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
       <c r="C654" t="n">
         <v>471</v>
       </c>
-      <c s="2" r="D654" t="n">
+      <c r="D654" s="2" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       <c r="C655" t="n">
         <v>506</v>
       </c>
-      <c s="2" r="D655" t="n">
+      <c r="D655" s="2" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -9588,7 +9588,7 @@
       <c r="C656" t="n">
         <v>727</v>
       </c>
-      <c s="2" r="D656" t="n">
+      <c r="D656" s="2" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -9602,7 +9602,7 @@
       <c r="C657" t="n">
         <v>607</v>
       </c>
-      <c s="2" r="D657" t="n">
+      <c r="D657" s="2" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -9616,7 +9616,7 @@
       <c r="C658" t="n">
         <v>717</v>
       </c>
-      <c s="2" r="D658" t="n">
+      <c r="D658" s="2" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
       <c r="C659" t="n">
         <v>622</v>
       </c>
-      <c s="2" r="D659" t="n">
+      <c r="D659" s="2" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -9644,7 +9644,7 @@
       <c r="C660" t="n">
         <v>215</v>
       </c>
-      <c s="2" r="D660" t="n">
+      <c r="D660" s="2" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -9658,7 +9658,7 @@
       <c r="C661" t="n">
         <v>413</v>
       </c>
-      <c s="2" r="D661" t="n">
+      <c r="D661" s="2" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
       <c r="C662" t="n">
         <v>330</v>
       </c>
-      <c s="2" r="D662" t="n">
+      <c r="D662" s="2" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
       <c r="C663" t="n">
         <v>298</v>
       </c>
-      <c s="2" r="D663" t="n">
+      <c r="D663" s="2" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="C664" t="n">
         <v>422</v>
       </c>
-      <c s="2" r="D664" t="n">
+      <c r="D664" s="2" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
       <c r="C665" t="n">
         <v>185</v>
       </c>
-      <c s="2" r="D665" t="n">
+      <c r="D665" s="2" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -9728,7 +9728,7 @@
       <c r="C666" t="n">
         <v>219</v>
       </c>
-      <c s="2" r="D666" t="n">
+      <c r="D666" s="2" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -9742,7 +9742,7 @@
       <c r="C667" t="n">
         <v>564</v>
       </c>
-      <c s="2" r="D667" t="n">
+      <c r="D667" s="2" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="C668" t="n">
         <v>432</v>
       </c>
-      <c s="2" r="D668" t="n">
+      <c r="D668" s="2" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -9770,7 +9770,7 @@
       <c r="C669" t="n">
         <v>860</v>
       </c>
-      <c s="2" r="D669" t="n">
+      <c r="D669" s="2" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
       <c r="C670" t="n">
         <v>240</v>
       </c>
-      <c s="2" r="D670" t="n">
+      <c r="D670" s="2" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -9798,7 +9798,7 @@
       <c r="C671" t="n">
         <v>694</v>
       </c>
-      <c s="2" r="D671" t="n">
+      <c r="D671" s="2" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -9812,7 +9812,7 @@
       <c r="C672" t="n">
         <v>696</v>
       </c>
-      <c s="2" r="D672" t="n">
+      <c r="D672" s="2" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -9826,7 +9826,7 @@
       <c r="C673" t="n">
         <v>984</v>
       </c>
-      <c s="2" r="D673" t="n">
+      <c r="D673" s="2" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -9840,7 +9840,7 @@
       <c r="C674" t="n">
         <v>737</v>
       </c>
-      <c s="2" r="D674" t="n">
+      <c r="D674" s="2" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       <c r="C675" t="n">
         <v>462</v>
       </c>
-      <c s="2" r="D675" t="n">
+      <c r="D675" s="2" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
       <c r="C676" t="n">
         <v>475</v>
       </c>
-      <c s="2" r="D676" t="n">
+      <c r="D676" s="2" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -9882,7 +9882,7 @@
       <c r="C677" t="n">
         <v>537</v>
       </c>
-      <c s="2" r="D677" t="n">
+      <c r="D677" s="2" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -9896,7 +9896,7 @@
       <c r="C678" t="n">
         <v>848</v>
       </c>
-      <c s="2" r="D678" t="n">
+      <c r="D678" s="2" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -9910,7 +9910,7 @@
       <c r="C679" t="n">
         <v>508</v>
       </c>
-      <c s="2" r="D679" t="n">
+      <c r="D679" s="2" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -9924,7 +9924,7 @@
       <c r="C680" t="n">
         <v>743</v>
       </c>
-      <c s="2" r="D680" t="n">
+      <c r="D680" s="2" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
       <c r="C681" t="n">
         <v>105</v>
       </c>
-      <c s="2" r="D681" t="n">
+      <c r="D681" s="2" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
       <c r="C682" t="n">
         <v>195</v>
       </c>
-      <c s="2" r="D682" t="n">
+      <c r="D682" s="2" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
       <c r="C683" t="n">
         <v>291</v>
       </c>
-      <c s="2" r="D683" t="n">
+      <c r="D683" s="2" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       <c r="C684" t="n">
         <v>125</v>
       </c>
-      <c s="2" r="D684" t="n">
+      <c r="D684" s="2" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -9994,7 +9994,7 @@
       <c r="C685" t="n">
         <v>273</v>
       </c>
-      <c s="2" r="D685" t="n">
+      <c r="D685" s="2" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
       <c r="C686" t="n">
         <v>564</v>
       </c>
-      <c s="2" r="D686" t="n">
+      <c r="D686" s="2" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -10022,7 +10022,7 @@
       <c r="C687" t="n">
         <v>147</v>
       </c>
-      <c s="2" r="D687" t="n">
+      <c r="D687" s="2" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -10036,7 +10036,7 @@
       <c r="C688" t="n">
         <v>996</v>
       </c>
-      <c s="2" r="D688" t="n">
+      <c r="D688" s="2" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -10050,7 +10050,7 @@
       <c r="C689" t="n">
         <v>914</v>
       </c>
-      <c s="2" r="D689" t="n">
+      <c r="D689" s="2" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
       <c r="C690" t="n">
         <v>199</v>
       </c>
-      <c s="2" r="D690" t="n">
+      <c r="D690" s="2" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
       <c r="C691" t="n">
         <v>516</v>
       </c>
-      <c s="2" r="D691" t="n">
+      <c r="D691" s="2" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       <c r="C692" t="n">
         <v>979</v>
       </c>
-      <c s="2" r="D692" t="n">
+      <c r="D692" s="2" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -10106,7 +10106,7 @@
       <c r="C693" t="n">
         <v>667</v>
       </c>
-      <c s="2" r="D693" t="n">
+      <c r="D693" s="2" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
       <c r="C694" t="n">
         <v>205</v>
       </c>
-      <c s="2" r="D694" t="n">
+      <c r="D694" s="2" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -10134,7 +10134,7 @@
       <c r="C695" t="n">
         <v>218</v>
       </c>
-      <c s="2" r="D695" t="n">
+      <c r="D695" s="2" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
       <c r="C696" t="n">
         <v>201</v>
       </c>
-      <c s="2" r="D696" t="n">
+      <c r="D696" s="2" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -10162,7 +10162,7 @@
       <c r="C697" t="n">
         <v>853</v>
       </c>
-      <c s="2" r="D697" t="n">
+      <c r="D697" s="2" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -10176,7 +10176,7 @@
       <c r="C698" t="n">
         <v>768</v>
       </c>
-      <c s="2" r="D698" t="n">
+      <c r="D698" s="2" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       <c r="C699" t="n">
         <v>110</v>
       </c>
-      <c s="2" r="D699" t="n">
+      <c r="D699" s="2" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       <c r="C700" t="n">
         <v>238</v>
       </c>
-      <c s="2" r="D700" t="n">
+      <c r="D700" s="2" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
       <c r="C701" t="n">
         <v>965</v>
       </c>
-      <c s="2" r="D701" t="n">
+      <c r="D701" s="2" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
       <c r="C702" t="n">
         <v>408</v>
       </c>
-      <c s="2" r="D702" t="n">
+      <c r="D702" s="2" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       <c r="C703" t="n">
         <v>602</v>
       </c>
-      <c s="2" r="D703" t="n">
+      <c r="D703" s="2" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -10260,7 +10260,7 @@
       <c r="C704" t="n">
         <v>586</v>
       </c>
-      <c s="2" r="D704" t="n">
+      <c r="D704" s="2" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -10274,7 +10274,7 @@
       <c r="C705" t="n">
         <v>678</v>
       </c>
-      <c s="2" r="D705" t="n">
+      <c r="D705" s="2" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
       <c r="C706" t="n">
         <v>847</v>
       </c>
-      <c s="2" r="D706" t="n">
+      <c r="D706" s="2" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -10302,7 +10302,7 @@
       <c r="C707" t="n">
         <v>676</v>
       </c>
-      <c s="2" r="D707" t="n">
+      <c r="D707" s="2" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       <c r="C708" t="n">
         <v>200</v>
       </c>
-      <c s="2" r="D708" t="n">
+      <c r="D708" s="2" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -10330,7 +10330,7 @@
       <c r="C709" t="n">
         <v>153</v>
       </c>
-      <c s="2" r="D709" t="n">
+      <c r="D709" s="2" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       <c r="C710" t="n">
         <v>746</v>
       </c>
-      <c s="2" r="D710" t="n">
+      <c r="D710" s="2" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -10358,7 +10358,7 @@
       <c r="C711" t="n">
         <v>738</v>
       </c>
-      <c s="2" r="D711" t="n">
+      <c r="D711" s="2" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -10372,7 +10372,7 @@
       <c r="C712" t="n">
         <v>635</v>
       </c>
-      <c s="2" r="D712" t="n">
+      <c r="D712" s="2" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       <c r="C713" t="n">
         <v>547</v>
       </c>
-      <c s="2" r="D713" t="n">
+      <c r="D713" s="2" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
       <c r="C714" t="n">
         <v>321</v>
       </c>
-      <c s="2" r="D714" t="n">
+      <c r="D714" s="2" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -10414,7 +10414,7 @@
       <c r="C715" t="n">
         <v>823</v>
       </c>
-      <c s="2" r="D715" t="n">
+      <c r="D715" s="2" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -10428,7 +10428,7 @@
       <c r="C716" t="n">
         <v>522</v>
       </c>
-      <c s="2" r="D716" t="n">
+      <c r="D716" s="2" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -10442,7 +10442,7 @@
       <c r="C717" t="n">
         <v>787</v>
       </c>
-      <c s="2" r="D717" t="n">
+      <c r="D717" s="2" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -10456,7 +10456,7 @@
       <c r="C718" t="n">
         <v>191</v>
       </c>
-      <c s="2" r="D718" t="n">
+      <c r="D718" s="2" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       <c r="C719" t="n">
         <v>753</v>
       </c>
-      <c s="2" r="D719" t="n">
+      <c r="D719" s="2" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -10484,7 +10484,7 @@
       <c r="C720" t="n">
         <v>836</v>
       </c>
-      <c s="2" r="D720" t="n">
+      <c r="D720" s="2" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       <c r="C721" t="n">
         <v>800</v>
       </c>
-      <c s="2" r="D721" t="n">
+      <c r="D721" s="2" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -10512,7 +10512,7 @@
       <c r="C722" t="n">
         <v>722</v>
       </c>
-      <c s="2" r="D722" t="n">
+      <c r="D722" s="2" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -10526,7 +10526,7 @@
       <c r="C723" t="n">
         <v>199</v>
       </c>
-      <c s="2" r="D723" t="n">
+      <c r="D723" s="2" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -10540,7 +10540,7 @@
       <c r="C724" t="n">
         <v>826</v>
       </c>
-      <c s="2" r="D724" t="n">
+      <c r="D724" s="2" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -10554,7 +10554,7 @@
       <c r="C725" t="n">
         <v>151</v>
       </c>
-      <c s="2" r="D725" t="n">
+      <c r="D725" s="2" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
       <c r="C726" t="n">
         <v>336</v>
       </c>
-      <c s="2" r="D726" t="n">
+      <c r="D726" s="2" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -10582,7 +10582,7 @@
       <c r="C727" t="n">
         <v>81</v>
       </c>
-      <c s="2" r="D727" t="n">
+      <c r="D727" s="2" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -10596,7 +10596,7 @@
       <c r="C728" t="n">
         <v>366</v>
       </c>
-      <c s="2" r="D728" t="n">
+      <c r="D728" s="2" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
       <c r="C729" t="n">
         <v>51</v>
       </c>
-      <c s="2" r="D729" t="n">
+      <c r="D729" s="2" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       <c r="C730" t="n">
         <v>950</v>
       </c>
-      <c s="2" r="D730" t="n">
+      <c r="D730" s="2" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -10638,7 +10638,7 @@
       <c r="C731" t="n">
         <v>504</v>
       </c>
-      <c s="2" r="D731" t="n">
+      <c r="D731" s="2" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
       <c r="C732" t="n">
         <v>51</v>
       </c>
-      <c s="2" r="D732" t="n">
+      <c r="D732" s="2" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       <c r="C733" t="n">
         <v>921</v>
       </c>
-      <c s="2" r="D733" t="n">
+      <c r="D733" s="2" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
       <c r="C734" t="n">
         <v>582</v>
       </c>
-      <c s="2" r="D734" t="n">
+      <c r="D734" s="2" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -10694,7 +10694,7 @@
       <c r="C735" t="n">
         <v>988</v>
       </c>
-      <c s="2" r="D735" t="n">
+      <c r="D735" s="2" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -10708,7 +10708,7 @@
       <c r="C736" t="n">
         <v>108</v>
       </c>
-      <c s="2" r="D736" t="n">
+      <c r="D736" s="2" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -10722,7 +10722,7 @@
       <c r="C737" t="n">
         <v>504</v>
       </c>
-      <c s="2" r="D737" t="n">
+      <c r="D737" s="2" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
       <c r="C738" t="n">
         <v>371</v>
       </c>
-      <c s="2" r="D738" t="n">
+      <c r="D738" s="2" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       <c r="C739" t="n">
         <v>66</v>
       </c>
-      <c s="2" r="D739" t="n">
+      <c r="D739" s="2" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -10764,7 +10764,7 @@
       <c r="C740" t="n">
         <v>699</v>
       </c>
-      <c s="2" r="D740" t="n">
+      <c r="D740" s="2" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
       <c r="C741" t="n">
         <v>975</v>
       </c>
-      <c s="2" r="D741" t="n">
+      <c r="D741" s="2" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
       <c r="C742" t="n">
         <v>880</v>
       </c>
-      <c s="2" r="D742" t="n">
+      <c r="D742" s="2" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       <c r="C743" t="n">
         <v>333</v>
       </c>
-      <c s="2" r="D743" t="n">
+      <c r="D743" s="2" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -10820,7 +10820,7 @@
       <c r="C744" t="n">
         <v>703</v>
       </c>
-      <c s="2" r="D744" t="n">
+      <c r="D744" s="2" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -10834,7 +10834,7 @@
       <c r="C745" t="n">
         <v>409</v>
       </c>
-      <c s="2" r="D745" t="n">
+      <c r="D745" s="2" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -10848,7 +10848,7 @@
       <c r="C746" t="n">
         <v>451</v>
       </c>
-      <c s="2" r="D746" t="n">
+      <c r="D746" s="2" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -10862,7 +10862,7 @@
       <c r="C747" t="n">
         <v>71</v>
       </c>
-      <c s="2" r="D747" t="n">
+      <c r="D747" s="2" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       <c r="C748" t="n">
         <v>398</v>
       </c>
-      <c s="2" r="D748" t="n">
+      <c r="D748" s="2" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -10890,7 +10890,7 @@
       <c r="C749" t="n">
         <v>910</v>
       </c>
-      <c s="2" r="D749" t="n">
+      <c r="D749" s="2" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -10904,7 +10904,7 @@
       <c r="C750" t="n">
         <v>659</v>
       </c>
-      <c s="2" r="D750" t="n">
+      <c r="D750" s="2" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -10918,7 +10918,7 @@
       <c r="C751" t="n">
         <v>691</v>
       </c>
-      <c s="2" r="D751" t="n">
+      <c r="D751" s="2" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -10932,7 +10932,7 @@
       <c r="C752" t="n">
         <v>174</v>
       </c>
-      <c s="2" r="D752" t="n">
+      <c r="D752" s="2" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -10946,7 +10946,7 @@
       <c r="C753" t="n">
         <v>872</v>
       </c>
-      <c s="2" r="D753" t="n">
+      <c r="D753" s="2" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -10960,7 +10960,7 @@
       <c r="C754" t="n">
         <v>126</v>
       </c>
-      <c s="2" r="D754" t="n">
+      <c r="D754" s="2" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
       <c r="C755" t="n">
         <v>579</v>
       </c>
-      <c s="2" r="D755" t="n">
+      <c r="D755" s="2" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -10988,7 +10988,7 @@
       <c r="C756" t="n">
         <v>797</v>
       </c>
-      <c s="2" r="D756" t="n">
+      <c r="D756" s="2" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -11002,7 +11002,7 @@
       <c r="C757" t="n">
         <v>401</v>
       </c>
-      <c s="2" r="D757" t="n">
+      <c r="D757" s="2" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -11016,7 +11016,7 @@
       <c r="C758" t="n">
         <v>125</v>
       </c>
-      <c s="2" r="D758" t="n">
+      <c r="D758" s="2" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -11030,7 +11030,7 @@
       <c r="C759" t="n">
         <v>998</v>
       </c>
-      <c s="2" r="D759" t="n">
+      <c r="D759" s="2" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       <c r="C760" t="n">
         <v>878</v>
       </c>
-      <c s="2" r="D760" t="n">
+      <c r="D760" s="2" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       <c r="C761" t="n">
         <v>306</v>
       </c>
-      <c s="2" r="D761" t="n">
+      <c r="D761" s="2" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -11072,7 +11072,7 @@
       <c r="C762" t="n">
         <v>462</v>
       </c>
-      <c s="2" r="D762" t="n">
+      <c r="D762" s="2" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
       <c r="C763" t="n">
         <v>746</v>
       </c>
-      <c s="2" r="D763" t="n">
+      <c r="D763" s="2" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -11100,7 +11100,7 @@
       <c r="C764" t="n">
         <v>223</v>
       </c>
-      <c s="2" r="D764" t="n">
+      <c r="D764" s="2" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -11114,7 +11114,7 @@
       <c r="C765" t="n">
         <v>730</v>
       </c>
-      <c s="2" r="D765" t="n">
+      <c r="D765" s="2" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
       <c r="C766" t="n">
         <v>626</v>
       </c>
-      <c s="2" r="D766" t="n">
+      <c r="D766" s="2" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -11142,7 +11142,7 @@
       <c r="C767" t="n">
         <v>865</v>
       </c>
-      <c s="2" r="D767" t="n">
+      <c r="D767" s="2" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -11156,7 +11156,7 @@
       <c r="C768" t="n">
         <v>41</v>
       </c>
-      <c s="2" r="D768" t="n">
+      <c r="D768" s="2" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -11170,7 +11170,7 @@
       <c r="C769" t="n">
         <v>909</v>
       </c>
-      <c s="2" r="D769" t="n">
+      <c r="D769" s="2" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -11184,7 +11184,7 @@
       <c r="C770" t="n">
         <v>187</v>
       </c>
-      <c s="2" r="D770" t="n">
+      <c r="D770" s="2" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       <c r="C771" t="n">
         <v>825</v>
       </c>
-      <c s="2" r="D771" t="n">
+      <c r="D771" s="2" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -11212,7 +11212,7 @@
       <c r="C772" t="n">
         <v>742</v>
       </c>
-      <c s="2" r="D772" t="n">
+      <c r="D772" s="2" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -11226,7 +11226,7 @@
       <c r="C773" t="n">
         <v>348</v>
       </c>
-      <c s="2" r="D773" t="n">
+      <c r="D773" s="2" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -11240,7 +11240,7 @@
       <c r="C774" t="n">
         <v>214</v>
       </c>
-      <c s="2" r="D774" t="n">
+      <c r="D774" s="2" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -11254,7 +11254,7 @@
       <c r="C775" t="n">
         <v>47</v>
       </c>
-      <c s="2" r="D775" t="n">
+      <c r="D775" s="2" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -11268,7 +11268,7 @@
       <c r="C776" t="n">
         <v>667</v>
       </c>
-      <c s="2" r="D776" t="n">
+      <c r="D776" s="2" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       <c r="C777" t="n">
         <v>455</v>
       </c>
-      <c s="2" r="D777" t="n">
+      <c r="D777" s="2" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -11296,7 +11296,7 @@
       <c r="C778" t="n">
         <v>747</v>
       </c>
-      <c s="2" r="D778" t="n">
+      <c r="D778" s="2" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -11310,7 +11310,7 @@
       <c r="C779" t="n">
         <v>141</v>
       </c>
-      <c s="2" r="D779" t="n">
+      <c r="D779" s="2" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -11324,7 +11324,7 @@
       <c r="C780" t="n">
         <v>142</v>
       </c>
-      <c s="2" r="D780" t="n">
+      <c r="D780" s="2" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="C781" t="n">
         <v>606</v>
       </c>
-      <c s="2" r="D781" t="n">
+      <c r="D781" s="2" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -11352,7 +11352,7 @@
       <c r="C782" t="n">
         <v>549</v>
       </c>
-      <c s="2" r="D782" t="n">
+      <c r="D782" s="2" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -11366,7 +11366,7 @@
       <c r="C783" t="n">
         <v>279</v>
       </c>
-      <c s="2" r="D783" t="n">
+      <c r="D783" s="2" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -11380,7 +11380,7 @@
       <c r="C784" t="n">
         <v>225</v>
       </c>
-      <c s="2" r="D784" t="n">
+      <c r="D784" s="2" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -11394,7 +11394,7 @@
       <c r="C785" t="n">
         <v>784</v>
       </c>
-      <c s="2" r="D785" t="n">
+      <c r="D785" s="2" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       <c r="C786" t="n">
         <v>510</v>
       </c>
-      <c s="2" r="D786" t="n">
+      <c r="D786" s="2" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -11422,7 +11422,7 @@
       <c r="C787" t="n">
         <v>240</v>
       </c>
-      <c s="2" r="D787" t="n">
+      <c r="D787" s="2" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -11436,7 +11436,7 @@
       <c r="C788" t="n">
         <v>211</v>
       </c>
-      <c s="2" r="D788" t="n">
+      <c r="D788" s="2" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -11450,7 +11450,7 @@
       <c r="C789" t="n">
         <v>973</v>
       </c>
-      <c s="2" r="D789" t="n">
+      <c r="D789" s="2" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -11464,7 +11464,7 @@
       <c r="C790" t="n">
         <v>649</v>
       </c>
-      <c s="2" r="D790" t="n">
+      <c r="D790" s="2" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -11478,7 +11478,7 @@
       <c r="C791" t="n">
         <v>743</v>
       </c>
-      <c s="2" r="D791" t="n">
+      <c r="D791" s="2" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -11492,7 +11492,7 @@
       <c r="C792" t="n">
         <v>669</v>
       </c>
-      <c s="2" r="D792" t="n">
+      <c r="D792" s="2" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -11506,7 +11506,7 @@
       <c r="C793" t="n">
         <v>360</v>
       </c>
-      <c s="2" r="D793" t="n">
+      <c r="D793" s="2" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -11520,7 +11520,7 @@
       <c r="C794" t="n">
         <v>433</v>
       </c>
-      <c s="2" r="D794" t="n">
+      <c r="D794" s="2" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -11534,7 +11534,7 @@
       <c r="C795" t="n">
         <v>858</v>
       </c>
-      <c s="2" r="D795" t="n">
+      <c r="D795" s="2" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
       <c r="C796" t="n">
         <v>607</v>
       </c>
-      <c s="2" r="D796" t="n">
+      <c r="D796" s="2" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -11562,7 +11562,7 @@
       <c r="C797" t="n">
         <v>904</v>
       </c>
-      <c s="2" r="D797" t="n">
+      <c r="D797" s="2" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -11576,7 +11576,7 @@
       <c r="C798" t="n">
         <v>175</v>
       </c>
-      <c s="2" r="D798" t="n">
+      <c r="D798" s="2" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
       <c r="C799" t="n">
         <v>513</v>
       </c>
-      <c s="2" r="D799" t="n">
+      <c r="D799" s="2" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
       <c r="C800" t="n">
         <v>486</v>
       </c>
-      <c s="2" r="D800" t="n">
+      <c r="D800" s="2" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="C801" t="n">
         <v>516</v>
       </c>
-      <c s="2" r="D801" t="n">
+      <c r="D801" s="2" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       <c r="C802" t="n">
         <v>471</v>
       </c>
-      <c s="2" r="D802" t="n">
+      <c r="D802" s="2" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
       <c r="C803" t="n">
         <v>670</v>
       </c>
-      <c s="2" r="D803" t="n">
+      <c r="D803" s="2" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -11660,7 +11660,7 @@
       <c r="C804" t="n">
         <v>500</v>
       </c>
-      <c s="2" r="D804" t="n">
+      <c r="D804" s="2" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -11674,7 +11674,7 @@
       <c r="C805" t="n">
         <v>457</v>
       </c>
-      <c s="2" r="D805" t="n">
+      <c r="D805" s="2" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       <c r="C806" t="n">
         <v>789</v>
       </c>
-      <c s="2" r="D806" t="n">
+      <c r="D806" s="2" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -11702,7 +11702,7 @@
       <c r="C807" t="n">
         <v>410</v>
       </c>
-      <c s="2" r="D807" t="n">
+      <c r="D807" s="2" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -11716,7 +11716,7 @@
       <c r="C808" t="n">
         <v>100</v>
       </c>
-      <c s="2" r="D808" t="n">
+      <c r="D808" s="2" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -11730,7 +11730,7 @@
       <c r="C809" t="n">
         <v>669</v>
       </c>
-      <c s="2" r="D809" t="n">
+      <c r="D809" s="2" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="C810" t="n">
         <v>348</v>
       </c>
-      <c s="2" r="D810" t="n">
+      <c r="D810" s="2" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       <c r="C811" t="n">
         <v>336</v>
       </c>
-      <c s="2" r="D811" t="n">
+      <c r="D811" s="2" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -11772,7 +11772,7 @@
       <c r="C812" t="n">
         <v>393</v>
       </c>
-      <c s="2" r="D812" t="n">
+      <c r="D812" s="2" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -11786,7 +11786,7 @@
       <c r="C813" t="n">
         <v>210</v>
       </c>
-      <c s="2" r="D813" t="n">
+      <c r="D813" s="2" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -11800,7 +11800,7 @@
       <c r="C814" t="n">
         <v>363</v>
       </c>
-      <c s="2" r="D814" t="n">
+      <c r="D814" s="2" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -11814,7 +11814,7 @@
       <c r="C815" t="n">
         <v>995</v>
       </c>
-      <c s="2" r="D815" t="n">
+      <c r="D815" s="2" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -11828,7 +11828,7 @@
       <c r="C816" t="n">
         <v>178</v>
       </c>
-      <c s="2" r="D816" t="n">
+      <c r="D816" s="2" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -11842,7 +11842,7 @@
       <c r="C817" t="n">
         <v>26</v>
       </c>
-      <c s="2" r="D817" t="n">
+      <c r="D817" s="2" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -11856,7 +11856,7 @@
       <c r="C818" t="n">
         <v>248</v>
       </c>
-      <c s="2" r="D818" t="n">
+      <c r="D818" s="2" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       <c r="C819" t="n">
         <v>74</v>
       </c>
-      <c s="2" r="D819" t="n">
+      <c r="D819" s="2" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -11884,7 +11884,7 @@
       <c r="C820" t="n">
         <v>46</v>
       </c>
-      <c s="2" r="D820" t="n">
+      <c r="D820" s="2" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
       <c r="C821" t="n">
         <v>920</v>
       </c>
-      <c s="2" r="D821" t="n">
+      <c r="D821" s="2" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -11912,7 +11912,7 @@
       <c r="C822" t="n">
         <v>623</v>
       </c>
-      <c s="2" r="D822" t="n">
+      <c r="D822" s="2" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -11926,7 +11926,7 @@
       <c r="C823" t="n">
         <v>784</v>
       </c>
-      <c s="2" r="D823" t="n">
+      <c r="D823" s="2" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -11940,7 +11940,7 @@
       <c r="C824" t="n">
         <v>924</v>
       </c>
-      <c s="2" r="D824" t="n">
+      <c r="D824" s="2" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -11954,7 +11954,7 @@
       <c r="C825" t="n">
         <v>716</v>
       </c>
-      <c s="2" r="D825" t="n">
+      <c r="D825" s="2" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -11968,7 +11968,7 @@
       <c r="C826" t="n">
         <v>428</v>
       </c>
-      <c s="2" r="D826" t="n">
+      <c r="D826" s="2" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -11982,7 +11982,7 @@
       <c r="C827" t="n">
         <v>955</v>
       </c>
-      <c s="2" r="D827" t="n">
+      <c r="D827" s="2" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       <c r="C828" t="n">
         <v>380</v>
       </c>
-      <c s="2" r="D828" t="n">
+      <c r="D828" s="2" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -12010,7 +12010,7 @@
       <c r="C829" t="n">
         <v>105</v>
       </c>
-      <c s="2" r="D829" t="n">
+      <c r="D829" s="2" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       <c r="C830" t="n">
         <v>772</v>
       </c>
-      <c s="2" r="D830" t="n">
+      <c r="D830" s="2" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -12038,7 +12038,7 @@
       <c r="C831" t="n">
         <v>390</v>
       </c>
-      <c s="2" r="D831" t="n">
+      <c r="D831" s="2" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       <c r="C832" t="n">
         <v>513</v>
       </c>
-      <c s="2" r="D832" t="n">
+      <c r="D832" s="2" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
       <c r="C833" t="n">
         <v>122</v>
       </c>
-      <c s="2" r="D833" t="n">
+      <c r="D833" s="2" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -12080,7 +12080,7 @@
       <c r="C834" t="n">
         <v>887</v>
       </c>
-      <c s="2" r="D834" t="n">
+      <c r="D834" s="2" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -12094,7 +12094,7 @@
       <c r="C835" t="n">
         <v>988</v>
       </c>
-      <c s="2" r="D835" t="n">
+      <c r="D835" s="2" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -12108,7 +12108,7 @@
       <c r="C836" t="n">
         <v>946</v>
       </c>
-      <c s="2" r="D836" t="n">
+      <c r="D836" s="2" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -12122,7 +12122,7 @@
       <c r="C837" t="n">
         <v>970</v>
       </c>
-      <c s="2" r="D837" t="n">
+      <c r="D837" s="2" t="n">
         <v>41274</v>
       </c>
     </row>
